--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0094F3-8834-471D-A3E3-D2F3F3501CE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1588AC8-45DF-4DDE-A807-81CE77012E18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="queries" sheetId="6" r:id="rId4"/>
-    <sheet name="model" sheetId="4" r:id="rId5"/>
+    <sheet name="vaccines" sheetId="7" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="queries" sheetId="6" r:id="rId5"/>
+    <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="506">
   <si>
     <t>setting_name</t>
   </si>
@@ -533,9 +534,6 @@
     <t>Parou Parir?</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>ABPART</t>
   </si>
   <si>
@@ -710,24 +708,9 @@
     <t>20pt</t>
   </si>
   <si>
-    <t>vaccines</t>
-  </si>
-  <si>
-    <t>MIFVAC</t>
-  </si>
-  <si>
-    <t>data('V') == '1'</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Fill in the vaccines </t>
-  </si>
-  <si>
-    <t>Vaccine data</t>
-  </si>
-  <si>
     <t>{ID: data('ID')}</t>
   </si>
   <si>
@@ -834,6 +817,778 @@
   </si>
   <si>
     <t>Certo da data de parto</t>
+  </si>
+  <si>
+    <t>CESCO</t>
+  </si>
+  <si>
+    <t>Has the woman attended school</t>
+  </si>
+  <si>
+    <t>data('CESCO') == '1'</t>
+  </si>
+  <si>
+    <t>ESCO</t>
+  </si>
+  <si>
+    <t>What grade?</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>Vaccine 1</t>
+  </si>
+  <si>
+    <t>vactype</t>
+  </si>
+  <si>
+    <t>VAC1TIPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of vaccine </t>
+  </si>
+  <si>
+    <t>VAC1DATA</t>
+  </si>
+  <si>
+    <t>Date of vaccine</t>
+  </si>
+  <si>
+    <t>vacinf</t>
+  </si>
+  <si>
+    <t>VAC1INF</t>
+  </si>
+  <si>
+    <t>Informant</t>
+  </si>
+  <si>
+    <t>data('CART') == '1'</t>
+  </si>
+  <si>
+    <t>TT vaccine</t>
+  </si>
+  <si>
+    <t>Vaccination card</t>
+  </si>
+  <si>
+    <t>Pregnancy card</t>
+  </si>
+  <si>
+    <t>do section vaccines</t>
+  </si>
+  <si>
+    <t>vac1</t>
+  </si>
+  <si>
+    <t>data('VAC1DATA') == null</t>
+  </si>
+  <si>
+    <t>addvac1</t>
+  </si>
+  <si>
+    <t>Add new vaccine</t>
+  </si>
+  <si>
+    <t>data('addvac1') == '1'</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>exit section</t>
+  </si>
+  <si>
+    <t>vaccheck</t>
+  </si>
+  <si>
+    <t>Correct information</t>
+  </si>
+  <si>
+    <t>Change information</t>
+  </si>
+  <si>
+    <t>VAC1CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC1CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>vac2</t>
+  </si>
+  <si>
+    <t>addvac2</t>
+  </si>
+  <si>
+    <t>Vaccine 2</t>
+  </si>
+  <si>
+    <t>vac3</t>
+  </si>
+  <si>
+    <t>addvac3</t>
+  </si>
+  <si>
+    <t>Vaccine 3</t>
+  </si>
+  <si>
+    <t>data('VAC2DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac2') == '1'</t>
+  </si>
+  <si>
+    <t>VAC2TIPO</t>
+  </si>
+  <si>
+    <t>VAC2DATA</t>
+  </si>
+  <si>
+    <t>VAC2INF</t>
+  </si>
+  <si>
+    <t>VAC2CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC2CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>vac4</t>
+  </si>
+  <si>
+    <t>vac5</t>
+  </si>
+  <si>
+    <t>vac6</t>
+  </si>
+  <si>
+    <t>addvac4</t>
+  </si>
+  <si>
+    <t>Vaccine 4</t>
+  </si>
+  <si>
+    <t>vac7</t>
+  </si>
+  <si>
+    <t>vac8</t>
+  </si>
+  <si>
+    <t>addvac5</t>
+  </si>
+  <si>
+    <t>Vaccine 5</t>
+  </si>
+  <si>
+    <t>vac9</t>
+  </si>
+  <si>
+    <t>vac10</t>
+  </si>
+  <si>
+    <t>addvac6</t>
+  </si>
+  <si>
+    <t>Vaccine 6</t>
+  </si>
+  <si>
+    <t>vac11</t>
+  </si>
+  <si>
+    <t>vac12</t>
+  </si>
+  <si>
+    <t>addvac7</t>
+  </si>
+  <si>
+    <t>Vaccine 7</t>
+  </si>
+  <si>
+    <t>vac13</t>
+  </si>
+  <si>
+    <t>vac14</t>
+  </si>
+  <si>
+    <t>addvac8</t>
+  </si>
+  <si>
+    <t>Vaccine 8</t>
+  </si>
+  <si>
+    <t>vac15</t>
+  </si>
+  <si>
+    <t>vac16</t>
+  </si>
+  <si>
+    <t>addvac9</t>
+  </si>
+  <si>
+    <t>Vaccine 9</t>
+  </si>
+  <si>
+    <t>vac17</t>
+  </si>
+  <si>
+    <t>vac18</t>
+  </si>
+  <si>
+    <t>addvac10</t>
+  </si>
+  <si>
+    <t>Vaccine 10</t>
+  </si>
+  <si>
+    <t>vac19</t>
+  </si>
+  <si>
+    <t>vac20</t>
+  </si>
+  <si>
+    <t>addvac11</t>
+  </si>
+  <si>
+    <t>Vaccine 11</t>
+  </si>
+  <si>
+    <t>data('VAC3DATA') == null</t>
+  </si>
+  <si>
+    <t>data('VAC3CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('addvac3') == '1'</t>
+  </si>
+  <si>
+    <t>VAC3TIPO</t>
+  </si>
+  <si>
+    <t>VAC3DATA</t>
+  </si>
+  <si>
+    <t>VAC3INF</t>
+  </si>
+  <si>
+    <t>VAC3CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC5DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC5TIPO</t>
+  </si>
+  <si>
+    <t>VAC5DATA</t>
+  </si>
+  <si>
+    <t>VAC5INF</t>
+  </si>
+  <si>
+    <t>VAC5CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC5CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC7DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC7TIPO</t>
+  </si>
+  <si>
+    <t>VAC7DATA</t>
+  </si>
+  <si>
+    <t>VAC7INF</t>
+  </si>
+  <si>
+    <t>VAC7CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC7CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC9CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC9DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC9TIPO</t>
+  </si>
+  <si>
+    <t>VAC9DATA</t>
+  </si>
+  <si>
+    <t>VAC9INF</t>
+  </si>
+  <si>
+    <t>VAC9CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC11DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC11TIPO</t>
+  </si>
+  <si>
+    <t>VAC11DATA</t>
+  </si>
+  <si>
+    <t>VAC11INF</t>
+  </si>
+  <si>
+    <t>VAC11CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC11CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC13DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC13TIPO</t>
+  </si>
+  <si>
+    <t>VAC13DATA</t>
+  </si>
+  <si>
+    <t>VAC13INF</t>
+  </si>
+  <si>
+    <t>VAC13CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC13CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC15DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC15TIPO</t>
+  </si>
+  <si>
+    <t>VAC15DATA</t>
+  </si>
+  <si>
+    <t>VAC15INF</t>
+  </si>
+  <si>
+    <t>VAC15CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC15CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC17DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC17TIPO</t>
+  </si>
+  <si>
+    <t>VAC17DATA</t>
+  </si>
+  <si>
+    <t>VAC17INF</t>
+  </si>
+  <si>
+    <t>VAC17CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC17CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC19DATA') == null</t>
+  </si>
+  <si>
+    <t>VAC19TIPO</t>
+  </si>
+  <si>
+    <t>VAC19DATA</t>
+  </si>
+  <si>
+    <t>VAC19INF</t>
+  </si>
+  <si>
+    <t>VAC19CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC19CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('addvac19') == '1'</t>
+  </si>
+  <si>
+    <t>Vaccine 19</t>
+  </si>
+  <si>
+    <t>Vaccine 17</t>
+  </si>
+  <si>
+    <t>data('addvac17') == '1'</t>
+  </si>
+  <si>
+    <t>Vaccine 15</t>
+  </si>
+  <si>
+    <t>data('addvac15') == '1'</t>
+  </si>
+  <si>
+    <t>Vaccine 13</t>
+  </si>
+  <si>
+    <t>data('addvac13') == '1'</t>
+  </si>
+  <si>
+    <t>addvac13</t>
+  </si>
+  <si>
+    <t>addvac15</t>
+  </si>
+  <si>
+    <t>addvac17</t>
+  </si>
+  <si>
+    <t>addvac19</t>
+  </si>
+  <si>
+    <t>data('addvac11') == '1'</t>
+  </si>
+  <si>
+    <t>data('addvac9') == '1'</t>
+  </si>
+  <si>
+    <t>data('addvac7') == '1'</t>
+  </si>
+  <si>
+    <t>data('addvac5') == '1'</t>
+  </si>
+  <si>
+    <t>data('VAC4DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac4') == '1'</t>
+  </si>
+  <si>
+    <t>VAC4TIPO</t>
+  </si>
+  <si>
+    <t>VAC4DATA</t>
+  </si>
+  <si>
+    <t>VAC4INF</t>
+  </si>
+  <si>
+    <t>VAC4CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC6DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac6') == '1'</t>
+  </si>
+  <si>
+    <t>VAC6TIPO</t>
+  </si>
+  <si>
+    <t>VAC6DATA</t>
+  </si>
+  <si>
+    <t>VAC6INF</t>
+  </si>
+  <si>
+    <t>VAC6CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC8DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac8') == '1'</t>
+  </si>
+  <si>
+    <t>VAC8TIPO</t>
+  </si>
+  <si>
+    <t>VAC8DATA</t>
+  </si>
+  <si>
+    <t>VAC8INF</t>
+  </si>
+  <si>
+    <t>VAC8CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC8CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC10DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac10') == '1'</t>
+  </si>
+  <si>
+    <t>VAC10TIPO</t>
+  </si>
+  <si>
+    <t>VAC10DATA</t>
+  </si>
+  <si>
+    <t>VAC10INF</t>
+  </si>
+  <si>
+    <t>VAC10CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC12DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac12') == '1'</t>
+  </si>
+  <si>
+    <t>VAC12TIPO</t>
+  </si>
+  <si>
+    <t>VAC12DATA</t>
+  </si>
+  <si>
+    <t>VAC12INF</t>
+  </si>
+  <si>
+    <t>VAC12CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC12CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC10CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC6CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC4CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>data('VAC14DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac14') == '1'</t>
+  </si>
+  <si>
+    <t>VAC14TIPO</t>
+  </si>
+  <si>
+    <t>VAC14DATA</t>
+  </si>
+  <si>
+    <t>VAC14INF</t>
+  </si>
+  <si>
+    <t>VAC14CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC16DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac16') == '1'</t>
+  </si>
+  <si>
+    <t>VAC16TIPO</t>
+  </si>
+  <si>
+    <t>VAC16DATA</t>
+  </si>
+  <si>
+    <t>VAC16INF</t>
+  </si>
+  <si>
+    <t>VAC16CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC18DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac18') == '1'</t>
+  </si>
+  <si>
+    <t>VAC18TIPO</t>
+  </si>
+  <si>
+    <t>VAC18DATA</t>
+  </si>
+  <si>
+    <t>VAC18INF</t>
+  </si>
+  <si>
+    <t>VAC18CHECK</t>
+  </si>
+  <si>
+    <t>data('VAC20DATA') == null</t>
+  </si>
+  <si>
+    <t>data('addvac20') == '1'</t>
+  </si>
+  <si>
+    <t>VAC20TIPO</t>
+  </si>
+  <si>
+    <t>VAC20DATA</t>
+  </si>
+  <si>
+    <t>VAC20INF</t>
+  </si>
+  <si>
+    <t>VAC20CHECK</t>
+  </si>
+  <si>
+    <t>Vaccine 12</t>
+  </si>
+  <si>
+    <t>Vaccine 14</t>
+  </si>
+  <si>
+    <t>data('VAC14CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>Vaccine 16</t>
+  </si>
+  <si>
+    <t>data('VAC16CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>Vaccine 18</t>
+  </si>
+  <si>
+    <t>data('VAC18CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>Vaccine 20</t>
+  </si>
+  <si>
+    <t>data('VAC20CHECK') == '2'</t>
+  </si>
+  <si>
+    <t>addvac12</t>
+  </si>
+  <si>
+    <t>addvac14</t>
+  </si>
+  <si>
+    <t>addvac16</t>
+  </si>
+  <si>
+    <t>addvac18</t>
+  </si>
+  <si>
+    <t>addvac20</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC20TIPO}}
+Information: {{data.VAC20INF}}
+Date: {{data.VAC20DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC19TIPO}}
+Information: {{data.VAC19INF}}
+Date: {{data.VAC19DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC18TIPO}}
+Information: {{data.VAC18INF}}
+Date: {{data.VAC18DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC17TIPO}}
+Information: {{data.VAC17INF}}
+Date: {{data.VAC17DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC16TIPO}}
+Information: {{data.VAC16INF}}
+Date: {{data.VAC16DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC15TIPO}}
+Information: {{data.VAC15INF}}
+Date: {{data.VAC15DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC14TIPO}}
+Information: {{data.VAC14INF}}
+Date: {{data.VAC14DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC13TIPO}}
+Information: {{data.VAC13INF}}
+Date: {{data.VAC13DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC12TIPO}}
+Information: {{data.VAC12INF}}
+Date: {{data.VAC12DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC11TIPO}}
+Information: {{data.VAC11INF}}
+Date: {{data.VAC11DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC10TIPO}}
+Information: {{data.VAC10INF}}
+Date: {{data.VAC10DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC9TIPO}}
+Information: {{data.VAC9INF}}
+Date: {{data.VAC9DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC8TIPO}}
+Information: {{data.VAC8INF}}
+Date: {{data.VAC8DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC7TIPO}}
+Information: {{data.VAC7INF}}
+Date: {{data.VAC7DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC6TIPO}}
+Information: {{data.VAC6INF}}
+Date: {{data.VAC6DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC5TIPO}}
+Information: {{data.VAC5INF}}
+Date: {{data.VAC5DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC4TIPO}}
+Information: {{data.VAC4INF}}
+Date: {{data.VAC4DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC3TIPO}}
+Information: {{data.VAC3INF}}
+Date: {{data.VAC3DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC2TIPO}}
+Information: {{data.VAC2INF}}
+Date: {{data.VAC2DATA}}</t>
+  </si>
+  <si>
+    <t>Vaccine type: {{data.VAC1TIPO}}
+Information: {{data.VAC1INF}}
+Date: {{data.VAC1DATA}}</t>
+  </si>
+  <si>
+    <t>dontknow</t>
+  </si>
+  <si>
+    <t>ESCONS</t>
   </si>
 </sst>
 </file>
@@ -907,18 +1662,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +1716,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -984,9 +1751,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1015,9 +1782,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1040,6 +1804,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1325,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -1364,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1388,10 +2157,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,16 +2186,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
         <v>149</v>
@@ -1440,17 +2209,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -1489,8 +2258,8 @@
       <c r="I1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>239</v>
+      <c r="J1" s="20" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1548,7 +2317,7 @@
         <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G7" t="s">
         <v>150</v>
@@ -1562,7 +2331,7 @@
         <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,7 +2370,7 @@
         <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1640,7 +2409,7 @@
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,20 +2424,20 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="H18" s="30"/>
+      <c r="F18" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,10 +2448,10 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>253</v>
+        <v>238</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1691,7 +2460,7 @@
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1699,13 +2468,13 @@
         <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1713,11 +2482,11 @@
       <c r="D23" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>254</v>
+      <c r="F23" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1743,7 +2512,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +2561,7 @@
         <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -1808,16 +2577,16 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" t="s">
         <v>168</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>169</v>
       </c>
-      <c r="H34" t="s">
-        <v>170</v>
-      </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -1830,7 +2599,7 @@
         <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -1843,13 +2612,13 @@
         <v>137</v>
       </c>
       <c r="F38" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" t="s">
         <v>196</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>197</v>
-      </c>
-      <c r="H38" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -1860,13 +2629,13 @@
         <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -1877,13 +2646,13 @@
         <v>95</v>
       </c>
       <c r="F40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" t="s">
         <v>172</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>173</v>
-      </c>
-      <c r="H40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1896,7 +2665,7 @@
         <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -1912,10 +2681,10 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -1924,7 +2693,7 @@
         <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -1932,13 +2701,13 @@
         <v>137</v>
       </c>
       <c r="F46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" t="s">
         <v>203</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>204</v>
-      </c>
-      <c r="H46" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -1949,13 +2718,13 @@
         <v>66</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G47" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1963,27 +2732,27 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>138</v>
       </c>
@@ -1991,56 +2760,56 @@
         <v>32</v>
       </c>
       <c r="F53" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" t="s">
         <v>175</v>
       </c>
-      <c r="G53" t="s">
-        <v>177</v>
-      </c>
-      <c r="H53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
         <v>98</v>
       </c>
       <c r="F55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" t="s">
         <v>179</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>180</v>
       </c>
-      <c r="H55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>138</v>
       </c>
@@ -2048,16 +2817,16 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" t="s">
         <v>182</v>
       </c>
-      <c r="G59" t="s">
-        <v>183</v>
-      </c>
       <c r="H59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>138</v>
       </c>
@@ -2065,24 +2834,24 @@
         <v>90</v>
       </c>
       <c r="F60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" t="s">
         <v>184</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>185</v>
       </c>
-      <c r="H60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>138</v>
       </c>
@@ -2090,132 +2859,180 @@
         <v>84</v>
       </c>
       <c r="F62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" t="s">
         <v>188</v>
       </c>
-      <c r="G62" t="s">
-        <v>189</v>
-      </c>
       <c r="H62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>139</v>
       </c>
-      <c r="C65" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>229</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="F68" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69" t="s">
+        <v>504</v>
+      </c>
+      <c r="F69" t="s">
+        <v>505</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
       <c r="B71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" t="s">
+        <v>267</v>
+      </c>
+      <c r="G79" t="s">
         <v>206</v>
       </c>
-      <c r="F72" t="s">
-        <v>167</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H79" t="s">
         <v>207</v>
       </c>
-      <c r="H72" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>139</v>
       </c>
-      <c r="C73" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>229</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="J74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="C81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2226,12 +3043,4113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:E67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93FDB5A-AD11-4FE5-B1A2-F35FCA6CC5F2}">
+  <dimension ref="A1:J481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" t="s">
+        <v>298</v>
+      </c>
+      <c r="G52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" t="s">
+        <v>343</v>
+      </c>
+      <c r="G57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" t="s">
+        <v>345</v>
+      </c>
+      <c r="G58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" t="s">
+        <v>344</v>
+      </c>
+      <c r="G59" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>289</v>
+      </c>
+      <c r="F66" t="s">
+        <v>346</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" t="s">
+        <v>344</v>
+      </c>
+      <c r="G70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="31"/>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" t="s">
+        <v>310</v>
+      </c>
+      <c r="G76" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" t="s">
+        <v>269</v>
+      </c>
+      <c r="F81" t="s">
+        <v>413</v>
+      </c>
+      <c r="G81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" t="s">
+        <v>415</v>
+      </c>
+      <c r="G82" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" t="s">
+        <v>414</v>
+      </c>
+      <c r="G83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" t="s">
+        <v>289</v>
+      </c>
+      <c r="F90" t="s">
+        <v>416</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" t="s">
+        <v>269</v>
+      </c>
+      <c r="F92" t="s">
+        <v>413</v>
+      </c>
+      <c r="G92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" t="s">
+        <v>274</v>
+      </c>
+      <c r="F93" t="s">
+        <v>415</v>
+      </c>
+      <c r="G93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" t="s">
+        <v>414</v>
+      </c>
+      <c r="G94" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="32"/>
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" t="s">
+        <v>314</v>
+      </c>
+      <c r="G100" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" t="s">
+        <v>348</v>
+      </c>
+      <c r="G105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106" t="s">
+        <v>350</v>
+      </c>
+      <c r="G106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107" t="s">
+        <v>349</v>
+      </c>
+      <c r="G107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" t="s">
+        <v>289</v>
+      </c>
+      <c r="F114" t="s">
+        <v>351</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>138</v>
+      </c>
+      <c r="E116" t="s">
+        <v>269</v>
+      </c>
+      <c r="F116" t="s">
+        <v>348</v>
+      </c>
+      <c r="G116" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" t="s">
+        <v>274</v>
+      </c>
+      <c r="F117" t="s">
+        <v>350</v>
+      </c>
+      <c r="G117" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>137</v>
+      </c>
+      <c r="F118" t="s">
+        <v>349</v>
+      </c>
+      <c r="G118" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="31"/>
+      <c r="B121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" t="s">
+        <v>205</v>
+      </c>
+      <c r="F124" t="s">
+        <v>318</v>
+      </c>
+      <c r="G124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>225</v>
+      </c>
+      <c r="G128" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" t="s">
+        <v>269</v>
+      </c>
+      <c r="F129" t="s">
+        <v>419</v>
+      </c>
+      <c r="G129" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" t="s">
+        <v>274</v>
+      </c>
+      <c r="F130" t="s">
+        <v>421</v>
+      </c>
+      <c r="G130" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>137</v>
+      </c>
+      <c r="F131" t="s">
+        <v>420</v>
+      </c>
+      <c r="G131" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" t="s">
+        <v>289</v>
+      </c>
+      <c r="F138" t="s">
+        <v>422</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>138</v>
+      </c>
+      <c r="E140" t="s">
+        <v>269</v>
+      </c>
+      <c r="F140" t="s">
+        <v>419</v>
+      </c>
+      <c r="G140" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
+        <v>421</v>
+      </c>
+      <c r="G141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>137</v>
+      </c>
+      <c r="F142" t="s">
+        <v>420</v>
+      </c>
+      <c r="G142" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="32"/>
+      <c r="B145" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" t="s">
+        <v>139</v>
+      </c>
+      <c r="C146" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>138</v>
+      </c>
+      <c r="E148" t="s">
+        <v>205</v>
+      </c>
+      <c r="F148" t="s">
+        <v>322</v>
+      </c>
+      <c r="G148" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>225</v>
+      </c>
+      <c r="G152" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>138</v>
+      </c>
+      <c r="E153" t="s">
+        <v>269</v>
+      </c>
+      <c r="F153" t="s">
+        <v>354</v>
+      </c>
+      <c r="G153" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154" t="s">
+        <v>274</v>
+      </c>
+      <c r="F154" t="s">
+        <v>356</v>
+      </c>
+      <c r="G154" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>137</v>
+      </c>
+      <c r="F155" t="s">
+        <v>355</v>
+      </c>
+      <c r="G155" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" t="s">
+        <v>289</v>
+      </c>
+      <c r="F162" t="s">
+        <v>357</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>138</v>
+      </c>
+      <c r="E164" t="s">
+        <v>269</v>
+      </c>
+      <c r="F164" t="s">
+        <v>354</v>
+      </c>
+      <c r="G164" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>138</v>
+      </c>
+      <c r="E165" t="s">
+        <v>274</v>
+      </c>
+      <c r="F165" t="s">
+        <v>356</v>
+      </c>
+      <c r="G165" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>137</v>
+      </c>
+      <c r="F166" t="s">
+        <v>355</v>
+      </c>
+      <c r="G166" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="31"/>
+      <c r="B169" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B170" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>138</v>
+      </c>
+      <c r="E172" t="s">
+        <v>205</v>
+      </c>
+      <c r="F172" t="s">
+        <v>326</v>
+      </c>
+      <c r="G172" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>225</v>
+      </c>
+      <c r="G176" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" t="s">
+        <v>269</v>
+      </c>
+      <c r="F177" t="s">
+        <v>425</v>
+      </c>
+      <c r="G177" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>138</v>
+      </c>
+      <c r="E178" t="s">
+        <v>274</v>
+      </c>
+      <c r="F178" t="s">
+        <v>427</v>
+      </c>
+      <c r="G178" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>137</v>
+      </c>
+      <c r="F179" t="s">
+        <v>426</v>
+      </c>
+      <c r="G179" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>138</v>
+      </c>
+      <c r="E186" t="s">
+        <v>289</v>
+      </c>
+      <c r="F186" t="s">
+        <v>428</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>139</v>
+      </c>
+      <c r="C187" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>138</v>
+      </c>
+      <c r="E188" t="s">
+        <v>269</v>
+      </c>
+      <c r="F188" t="s">
+        <v>425</v>
+      </c>
+      <c r="G188" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>138</v>
+      </c>
+      <c r="E189" t="s">
+        <v>274</v>
+      </c>
+      <c r="F189" t="s">
+        <v>427</v>
+      </c>
+      <c r="G189" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>137</v>
+      </c>
+      <c r="F190" t="s">
+        <v>426</v>
+      </c>
+      <c r="G190" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="32"/>
+      <c r="B193" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B194" t="s">
+        <v>139</v>
+      </c>
+      <c r="C194" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>138</v>
+      </c>
+      <c r="E196" t="s">
+        <v>205</v>
+      </c>
+      <c r="F196" t="s">
+        <v>330</v>
+      </c>
+      <c r="G196" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>139</v>
+      </c>
+      <c r="C198" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>225</v>
+      </c>
+      <c r="G200" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" t="s">
+        <v>269</v>
+      </c>
+      <c r="F201" t="s">
+        <v>361</v>
+      </c>
+      <c r="G201" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>138</v>
+      </c>
+      <c r="E202" t="s">
+        <v>274</v>
+      </c>
+      <c r="F202" t="s">
+        <v>363</v>
+      </c>
+      <c r="G202" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>137</v>
+      </c>
+      <c r="F203" t="s">
+        <v>362</v>
+      </c>
+      <c r="G203" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>138</v>
+      </c>
+      <c r="E210" t="s">
+        <v>289</v>
+      </c>
+      <c r="F210" t="s">
+        <v>364</v>
+      </c>
+      <c r="G210" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>139</v>
+      </c>
+      <c r="C211" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>138</v>
+      </c>
+      <c r="E212" t="s">
+        <v>269</v>
+      </c>
+      <c r="F212" t="s">
+        <v>361</v>
+      </c>
+      <c r="G212" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>138</v>
+      </c>
+      <c r="E213" t="s">
+        <v>274</v>
+      </c>
+      <c r="F213" t="s">
+        <v>363</v>
+      </c>
+      <c r="G213" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>137</v>
+      </c>
+      <c r="F214" t="s">
+        <v>362</v>
+      </c>
+      <c r="G214" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="31"/>
+      <c r="B217" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B218" t="s">
+        <v>139</v>
+      </c>
+      <c r="C218" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>138</v>
+      </c>
+      <c r="E220" t="s">
+        <v>205</v>
+      </c>
+      <c r="F220" t="s">
+        <v>334</v>
+      </c>
+      <c r="G220" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>139</v>
+      </c>
+      <c r="C222" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>225</v>
+      </c>
+      <c r="G224" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>138</v>
+      </c>
+      <c r="E225" t="s">
+        <v>269</v>
+      </c>
+      <c r="F225" t="s">
+        <v>432</v>
+      </c>
+      <c r="G225" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>138</v>
+      </c>
+      <c r="E226" t="s">
+        <v>274</v>
+      </c>
+      <c r="F226" t="s">
+        <v>434</v>
+      </c>
+      <c r="G226" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>137</v>
+      </c>
+      <c r="F227" t="s">
+        <v>433</v>
+      </c>
+      <c r="G227" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>138</v>
+      </c>
+      <c r="E234" t="s">
+        <v>289</v>
+      </c>
+      <c r="F234" t="s">
+        <v>435</v>
+      </c>
+      <c r="G234" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>139</v>
+      </c>
+      <c r="C235" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>138</v>
+      </c>
+      <c r="E236" t="s">
+        <v>269</v>
+      </c>
+      <c r="F236" t="s">
+        <v>432</v>
+      </c>
+      <c r="G236" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>138</v>
+      </c>
+      <c r="E237" t="s">
+        <v>274</v>
+      </c>
+      <c r="F237" t="s">
+        <v>434</v>
+      </c>
+      <c r="G237" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>137</v>
+      </c>
+      <c r="F238" t="s">
+        <v>433</v>
+      </c>
+      <c r="G238" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="32"/>
+      <c r="B241" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B242" t="s">
+        <v>139</v>
+      </c>
+      <c r="C242" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>138</v>
+      </c>
+      <c r="E244" t="s">
+        <v>205</v>
+      </c>
+      <c r="F244" t="s">
+        <v>338</v>
+      </c>
+      <c r="G244" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>139</v>
+      </c>
+      <c r="C246" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>225</v>
+      </c>
+      <c r="G248" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>138</v>
+      </c>
+      <c r="E249" t="s">
+        <v>269</v>
+      </c>
+      <c r="F249" t="s">
+        <v>366</v>
+      </c>
+      <c r="G249" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>138</v>
+      </c>
+      <c r="E250" t="s">
+        <v>274</v>
+      </c>
+      <c r="F250" t="s">
+        <v>368</v>
+      </c>
+      <c r="G250" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>137</v>
+      </c>
+      <c r="F251" t="s">
+        <v>367</v>
+      </c>
+      <c r="G251" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>138</v>
+      </c>
+      <c r="E258" t="s">
+        <v>289</v>
+      </c>
+      <c r="F258" t="s">
+        <v>369</v>
+      </c>
+      <c r="G258" s="21" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>139</v>
+      </c>
+      <c r="C259" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>138</v>
+      </c>
+      <c r="E260" t="s">
+        <v>269</v>
+      </c>
+      <c r="F260" t="s">
+        <v>366</v>
+      </c>
+      <c r="G260" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>138</v>
+      </c>
+      <c r="E261" t="s">
+        <v>274</v>
+      </c>
+      <c r="F261" t="s">
+        <v>368</v>
+      </c>
+      <c r="G261" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>137</v>
+      </c>
+      <c r="F262" t="s">
+        <v>367</v>
+      </c>
+      <c r="G262" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="31"/>
+      <c r="B265" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B266" t="s">
+        <v>139</v>
+      </c>
+      <c r="C266" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>138</v>
+      </c>
+      <c r="E268" t="s">
+        <v>205</v>
+      </c>
+      <c r="F268" t="s">
+        <v>479</v>
+      </c>
+      <c r="G268" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>225</v>
+      </c>
+      <c r="G272" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>138</v>
+      </c>
+      <c r="E273" t="s">
+        <v>269</v>
+      </c>
+      <c r="F273" t="s">
+        <v>438</v>
+      </c>
+      <c r="G273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>138</v>
+      </c>
+      <c r="E274" t="s">
+        <v>274</v>
+      </c>
+      <c r="F274" t="s">
+        <v>440</v>
+      </c>
+      <c r="G274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>137</v>
+      </c>
+      <c r="F275" t="s">
+        <v>439</v>
+      </c>
+      <c r="G275" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>138</v>
+      </c>
+      <c r="E282" t="s">
+        <v>289</v>
+      </c>
+      <c r="F282" t="s">
+        <v>441</v>
+      </c>
+      <c r="G282" s="21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>139</v>
+      </c>
+      <c r="C283" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>138</v>
+      </c>
+      <c r="E284" t="s">
+        <v>269</v>
+      </c>
+      <c r="F284" t="s">
+        <v>438</v>
+      </c>
+      <c r="G284" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>138</v>
+      </c>
+      <c r="E285" t="s">
+        <v>274</v>
+      </c>
+      <c r="F285" t="s">
+        <v>440</v>
+      </c>
+      <c r="G285" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>137</v>
+      </c>
+      <c r="F286" t="s">
+        <v>439</v>
+      </c>
+      <c r="G286" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="32"/>
+      <c r="B289" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B290" t="s">
+        <v>139</v>
+      </c>
+      <c r="C290" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>138</v>
+      </c>
+      <c r="E292" t="s">
+        <v>205</v>
+      </c>
+      <c r="F292" t="s">
+        <v>403</v>
+      </c>
+      <c r="G292" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>139</v>
+      </c>
+      <c r="C294" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>225</v>
+      </c>
+      <c r="G296" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>138</v>
+      </c>
+      <c r="E297" t="s">
+        <v>269</v>
+      </c>
+      <c r="F297" t="s">
+        <v>372</v>
+      </c>
+      <c r="G297" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>138</v>
+      </c>
+      <c r="E298" t="s">
+        <v>274</v>
+      </c>
+      <c r="F298" t="s">
+        <v>374</v>
+      </c>
+      <c r="G298" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>137</v>
+      </c>
+      <c r="F299" t="s">
+        <v>373</v>
+      </c>
+      <c r="G299" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>138</v>
+      </c>
+      <c r="E306" t="s">
+        <v>289</v>
+      </c>
+      <c r="F306" t="s">
+        <v>375</v>
+      </c>
+      <c r="G306" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>139</v>
+      </c>
+      <c r="C307" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>138</v>
+      </c>
+      <c r="E308" t="s">
+        <v>269</v>
+      </c>
+      <c r="F308" t="s">
+        <v>372</v>
+      </c>
+      <c r="G308" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>138</v>
+      </c>
+      <c r="E309" t="s">
+        <v>274</v>
+      </c>
+      <c r="F309" t="s">
+        <v>374</v>
+      </c>
+      <c r="G309" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>137</v>
+      </c>
+      <c r="F310" t="s">
+        <v>373</v>
+      </c>
+      <c r="G310" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="31"/>
+      <c r="B313" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="B314" t="s">
+        <v>139</v>
+      </c>
+      <c r="C314" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>138</v>
+      </c>
+      <c r="E316" t="s">
+        <v>205</v>
+      </c>
+      <c r="F316" t="s">
+        <v>480</v>
+      </c>
+      <c r="G316" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>139</v>
+      </c>
+      <c r="C318" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>225</v>
+      </c>
+      <c r="G320" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>138</v>
+      </c>
+      <c r="E321" t="s">
+        <v>269</v>
+      </c>
+      <c r="F321" t="s">
+        <v>448</v>
+      </c>
+      <c r="G321" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>138</v>
+      </c>
+      <c r="E322" t="s">
+        <v>274</v>
+      </c>
+      <c r="F322" t="s">
+        <v>450</v>
+      </c>
+      <c r="G322" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>137</v>
+      </c>
+      <c r="F323" t="s">
+        <v>449</v>
+      </c>
+      <c r="G323" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>138</v>
+      </c>
+      <c r="E330" t="s">
+        <v>289</v>
+      </c>
+      <c r="F330" t="s">
+        <v>451</v>
+      </c>
+      <c r="G330" s="21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>139</v>
+      </c>
+      <c r="C331" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>138</v>
+      </c>
+      <c r="E332" t="s">
+        <v>269</v>
+      </c>
+      <c r="F332" t="s">
+        <v>448</v>
+      </c>
+      <c r="G332" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>138</v>
+      </c>
+      <c r="E333" t="s">
+        <v>274</v>
+      </c>
+      <c r="F333" t="s">
+        <v>450</v>
+      </c>
+      <c r="G333" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>137</v>
+      </c>
+      <c r="F334" t="s">
+        <v>449</v>
+      </c>
+      <c r="G334" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="32"/>
+      <c r="B337" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B338" t="s">
+        <v>139</v>
+      </c>
+      <c r="C338" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>138</v>
+      </c>
+      <c r="E340" t="s">
+        <v>205</v>
+      </c>
+      <c r="F340" t="s">
+        <v>404</v>
+      </c>
+      <c r="G340" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>139</v>
+      </c>
+      <c r="C342" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>225</v>
+      </c>
+      <c r="G344" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>138</v>
+      </c>
+      <c r="E345" t="s">
+        <v>269</v>
+      </c>
+      <c r="F345" t="s">
+        <v>378</v>
+      </c>
+      <c r="G345" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>138</v>
+      </c>
+      <c r="E346" t="s">
+        <v>274</v>
+      </c>
+      <c r="F346" t="s">
+        <v>380</v>
+      </c>
+      <c r="G346" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>137</v>
+      </c>
+      <c r="F347" t="s">
+        <v>379</v>
+      </c>
+      <c r="G347" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>138</v>
+      </c>
+      <c r="E354" t="s">
+        <v>289</v>
+      </c>
+      <c r="F354" t="s">
+        <v>381</v>
+      </c>
+      <c r="G354" s="21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>139</v>
+      </c>
+      <c r="C355" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>138</v>
+      </c>
+      <c r="E356" t="s">
+        <v>269</v>
+      </c>
+      <c r="F356" t="s">
+        <v>378</v>
+      </c>
+      <c r="G356" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>138</v>
+      </c>
+      <c r="E357" t="s">
+        <v>274</v>
+      </c>
+      <c r="F357" t="s">
+        <v>380</v>
+      </c>
+      <c r="G357" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>137</v>
+      </c>
+      <c r="F358" t="s">
+        <v>379</v>
+      </c>
+      <c r="G358" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="31"/>
+      <c r="B361" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B362" t="s">
+        <v>139</v>
+      </c>
+      <c r="C362" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>138</v>
+      </c>
+      <c r="E364" t="s">
+        <v>205</v>
+      </c>
+      <c r="F364" t="s">
+        <v>481</v>
+      </c>
+      <c r="G364" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>139</v>
+      </c>
+      <c r="C366" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>225</v>
+      </c>
+      <c r="G368" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>138</v>
+      </c>
+      <c r="E369" t="s">
+        <v>269</v>
+      </c>
+      <c r="F369" t="s">
+        <v>454</v>
+      </c>
+      <c r="G369" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>138</v>
+      </c>
+      <c r="E370" t="s">
+        <v>274</v>
+      </c>
+      <c r="F370" t="s">
+        <v>456</v>
+      </c>
+      <c r="G370" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>137</v>
+      </c>
+      <c r="F371" t="s">
+        <v>455</v>
+      </c>
+      <c r="G371" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>138</v>
+      </c>
+      <c r="E378" t="s">
+        <v>289</v>
+      </c>
+      <c r="F378" t="s">
+        <v>457</v>
+      </c>
+      <c r="G378" s="21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>139</v>
+      </c>
+      <c r="C379" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>138</v>
+      </c>
+      <c r="E380" t="s">
+        <v>269</v>
+      </c>
+      <c r="F380" t="s">
+        <v>454</v>
+      </c>
+      <c r="G380" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>138</v>
+      </c>
+      <c r="E381" t="s">
+        <v>274</v>
+      </c>
+      <c r="F381" t="s">
+        <v>456</v>
+      </c>
+      <c r="G381" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>137</v>
+      </c>
+      <c r="F382" t="s">
+        <v>455</v>
+      </c>
+      <c r="G382" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="32"/>
+      <c r="B385" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B386" t="s">
+        <v>139</v>
+      </c>
+      <c r="C386" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>138</v>
+      </c>
+      <c r="E388" t="s">
+        <v>205</v>
+      </c>
+      <c r="F388" t="s">
+        <v>405</v>
+      </c>
+      <c r="G388" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>139</v>
+      </c>
+      <c r="C390" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>225</v>
+      </c>
+      <c r="G392" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>138</v>
+      </c>
+      <c r="E393" t="s">
+        <v>269</v>
+      </c>
+      <c r="F393" t="s">
+        <v>384</v>
+      </c>
+      <c r="G393" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>138</v>
+      </c>
+      <c r="E394" t="s">
+        <v>274</v>
+      </c>
+      <c r="F394" t="s">
+        <v>386</v>
+      </c>
+      <c r="G394" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>137</v>
+      </c>
+      <c r="F395" t="s">
+        <v>385</v>
+      </c>
+      <c r="G395" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D402" t="s">
+        <v>138</v>
+      </c>
+      <c r="E402" t="s">
+        <v>289</v>
+      </c>
+      <c r="F402" t="s">
+        <v>387</v>
+      </c>
+      <c r="G402" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>139</v>
+      </c>
+      <c r="C403" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D404" t="s">
+        <v>138</v>
+      </c>
+      <c r="E404" t="s">
+        <v>269</v>
+      </c>
+      <c r="F404" t="s">
+        <v>384</v>
+      </c>
+      <c r="G404" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D405" t="s">
+        <v>138</v>
+      </c>
+      <c r="E405" t="s">
+        <v>274</v>
+      </c>
+      <c r="F405" t="s">
+        <v>386</v>
+      </c>
+      <c r="G405" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D406" t="s">
+        <v>137</v>
+      </c>
+      <c r="F406" t="s">
+        <v>385</v>
+      </c>
+      <c r="G406" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" s="31"/>
+      <c r="B409" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B410" t="s">
+        <v>139</v>
+      </c>
+      <c r="C410" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D412" t="s">
+        <v>138</v>
+      </c>
+      <c r="E412" t="s">
+        <v>205</v>
+      </c>
+      <c r="F412" t="s">
+        <v>482</v>
+      </c>
+      <c r="G412" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>139</v>
+      </c>
+      <c r="C414" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D416" t="s">
+        <v>225</v>
+      </c>
+      <c r="G416" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D417" t="s">
+        <v>138</v>
+      </c>
+      <c r="E417" t="s">
+        <v>269</v>
+      </c>
+      <c r="F417" t="s">
+        <v>460</v>
+      </c>
+      <c r="G417" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D418" t="s">
+        <v>138</v>
+      </c>
+      <c r="E418" t="s">
+        <v>274</v>
+      </c>
+      <c r="F418" t="s">
+        <v>462</v>
+      </c>
+      <c r="G418" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D419" t="s">
+        <v>137</v>
+      </c>
+      <c r="F419" t="s">
+        <v>461</v>
+      </c>
+      <c r="G419" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D426" t="s">
+        <v>138</v>
+      </c>
+      <c r="E426" t="s">
+        <v>289</v>
+      </c>
+      <c r="F426" t="s">
+        <v>463</v>
+      </c>
+      <c r="G426" s="21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>139</v>
+      </c>
+      <c r="C427" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D428" t="s">
+        <v>138</v>
+      </c>
+      <c r="E428" t="s">
+        <v>269</v>
+      </c>
+      <c r="F428" t="s">
+        <v>460</v>
+      </c>
+      <c r="G428" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D429" t="s">
+        <v>138</v>
+      </c>
+      <c r="E429" t="s">
+        <v>274</v>
+      </c>
+      <c r="F429" t="s">
+        <v>462</v>
+      </c>
+      <c r="G429" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D430" t="s">
+        <v>137</v>
+      </c>
+      <c r="F430" t="s">
+        <v>461</v>
+      </c>
+      <c r="G430" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="32"/>
+      <c r="B433" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B434" t="s">
+        <v>139</v>
+      </c>
+      <c r="C434" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D436" t="s">
+        <v>138</v>
+      </c>
+      <c r="E436" t="s">
+        <v>205</v>
+      </c>
+      <c r="F436" t="s">
+        <v>406</v>
+      </c>
+      <c r="G436" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>139</v>
+      </c>
+      <c r="C438" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D440" t="s">
+        <v>225</v>
+      </c>
+      <c r="G440" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D441" t="s">
+        <v>138</v>
+      </c>
+      <c r="E441" t="s">
+        <v>269</v>
+      </c>
+      <c r="F441" t="s">
+        <v>390</v>
+      </c>
+      <c r="G441" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D442" t="s">
+        <v>138</v>
+      </c>
+      <c r="E442" t="s">
+        <v>274</v>
+      </c>
+      <c r="F442" t="s">
+        <v>392</v>
+      </c>
+      <c r="G442" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D443" t="s">
+        <v>137</v>
+      </c>
+      <c r="F443" t="s">
+        <v>391</v>
+      </c>
+      <c r="G443" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B447" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D450" t="s">
+        <v>138</v>
+      </c>
+      <c r="E450" t="s">
+        <v>289</v>
+      </c>
+      <c r="F450" t="s">
+        <v>393</v>
+      </c>
+      <c r="G450" s="21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>139</v>
+      </c>
+      <c r="C451" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D452" t="s">
+        <v>138</v>
+      </c>
+      <c r="E452" t="s">
+        <v>269</v>
+      </c>
+      <c r="F452" t="s">
+        <v>390</v>
+      </c>
+      <c r="G452" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D453" t="s">
+        <v>138</v>
+      </c>
+      <c r="E453" t="s">
+        <v>274</v>
+      </c>
+      <c r="F453" t="s">
+        <v>392</v>
+      </c>
+      <c r="G453" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D454" t="s">
+        <v>137</v>
+      </c>
+      <c r="F454" t="s">
+        <v>391</v>
+      </c>
+      <c r="G454" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B455" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B456" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="31"/>
+      <c r="B457" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B458" t="s">
+        <v>139</v>
+      </c>
+      <c r="C458" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B459" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D460" t="s">
+        <v>138</v>
+      </c>
+      <c r="E460" t="s">
+        <v>205</v>
+      </c>
+      <c r="F460" t="s">
+        <v>483</v>
+      </c>
+      <c r="G460" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B461" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B462" t="s">
+        <v>139</v>
+      </c>
+      <c r="C462" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B463" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D464" t="s">
+        <v>225</v>
+      </c>
+      <c r="G464" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D465" t="s">
+        <v>138</v>
+      </c>
+      <c r="E465" t="s">
+        <v>269</v>
+      </c>
+      <c r="F465" t="s">
+        <v>466</v>
+      </c>
+      <c r="G465" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D466" t="s">
+        <v>138</v>
+      </c>
+      <c r="E466" t="s">
+        <v>274</v>
+      </c>
+      <c r="F466" t="s">
+        <v>468</v>
+      </c>
+      <c r="G466" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D467" t="s">
+        <v>137</v>
+      </c>
+      <c r="F467" t="s">
+        <v>467</v>
+      </c>
+      <c r="G467" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="474" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D474" t="s">
+        <v>138</v>
+      </c>
+      <c r="E474" t="s">
+        <v>289</v>
+      </c>
+      <c r="F474" t="s">
+        <v>469</v>
+      </c>
+      <c r="G474" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>139</v>
+      </c>
+      <c r="C475" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D476" t="s">
+        <v>138</v>
+      </c>
+      <c r="E476" t="s">
+        <v>269</v>
+      </c>
+      <c r="F476" t="s">
+        <v>466</v>
+      </c>
+      <c r="G476" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D477" t="s">
+        <v>138</v>
+      </c>
+      <c r="E477" t="s">
+        <v>274</v>
+      </c>
+      <c r="F477" t="s">
+        <v>468</v>
+      </c>
+      <c r="G477" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D478" t="s">
+        <v>137</v>
+      </c>
+      <c r="F478" t="s">
+        <v>467</v>
+      </c>
+      <c r="G478" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="32"/>
+      <c r="B481" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +7176,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
@@ -2273,7 +7191,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
@@ -2805,7 +7723,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
         <v>72</v>
@@ -2903,27 +7821,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B45" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B46" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -3011,10 +7929,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
         <v>192</v>
-      </c>
-      <c r="D52" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,10 +8029,10 @@
       <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>105</v>
       </c>
       <c r="D59" t="s">
@@ -3216,13 +8134,13 @@
         <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E66" s="15"/>
     </row>
@@ -3231,15 +8149,107 @@
         <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="16"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>504</v>
+      </c>
+      <c r="B68" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:D33">
@@ -3250,13 +8260,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,84 +8282,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>217</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>241</v>
+        <v>219</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" t="s">
         <v>226</v>
       </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>221</v>
+      <c r="H2" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3357,13 +8341,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,7 +8370,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>138</v>
@@ -3397,7 +8381,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
         <v>137</v>
@@ -3408,7 +8392,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>138</v>
@@ -3419,10 +8403,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3430,10 +8414,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3441,7 +8425,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -3452,7 +8436,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
@@ -3473,41 +8457,41 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>254</v>
+      <c r="A10" t="s">
+        <v>267</v>
       </c>
       <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" t="s">
         <v>137</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>255</v>
+      <c r="A13" s="26" t="s">
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>138</v>
@@ -3518,10 +8502,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3529,7 +8513,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
@@ -3540,10 +8524,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3551,10 +8535,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3562,10 +8546,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3573,10 +8557,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3584,10 +8568,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3595,10 +8579,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3606,10 +8590,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3617,7 +8601,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
         <v>138</v>
@@ -3628,7 +8612,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
         <v>138</v>
@@ -3639,7 +8623,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
         <v>138</v>
@@ -3650,21 +8634,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
         <v>138</v>
       </c>
       <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>242</v>
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3672,10 +8667,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3683,19 +8678,1131 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
         <v>137</v>
       </c>
-      <c r="C30" t="b">
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>416</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>414</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>415</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>419</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>420</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>421</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>357</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>426</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>427</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>364</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>435</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>432</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>433</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>434</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>441</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>438</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>439</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>440</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>375</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>372</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>374</v>
+      </c>
+      <c r="B80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>451</v>
+      </c>
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>449</v>
+      </c>
+      <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>450</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>381</v>
+      </c>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>379</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>380</v>
+      </c>
+      <c r="B88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>457</v>
+      </c>
+      <c r="B89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>454</v>
+      </c>
+      <c r="B90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>455</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>456</v>
+      </c>
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>387</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>384</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>385</v>
+      </c>
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>386</v>
+      </c>
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>460</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>462</v>
+      </c>
+      <c r="B100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>393</v>
+      </c>
+      <c r="B101" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>390</v>
+      </c>
+      <c r="B102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>391</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>469</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>466</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>467</v>
+      </c>
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>468</v>
+      </c>
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>284</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>295</v>
+      </c>
+      <c r="B111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>298</v>
+      </c>
+      <c r="B112" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>310</v>
+      </c>
+      <c r="B113" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>326</v>
+      </c>
+      <c r="B117" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>330</v>
+      </c>
+      <c r="B118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>338</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>479</v>
+      </c>
+      <c r="B121" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>480</v>
+      </c>
+      <c r="B123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>404</v>
+      </c>
+      <c r="B124" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>481</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>405</v>
+      </c>
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>482</v>
+      </c>
+      <c r="B127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>406</v>
+      </c>
+      <c r="B128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>483</v>
+      </c>
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1588AC8-45DF-4DDE-A807-81CE77012E18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D46D1C-00EE-425F-9AAC-BD0FA9CD8549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="vaccines" sheetId="7" r:id="rId3"/>
-    <sheet name="choices" sheetId="3" r:id="rId4"/>
-    <sheet name="queries" sheetId="6" r:id="rId5"/>
-    <sheet name="model" sheetId="4" r:id="rId6"/>
+    <sheet name="prompt_types" sheetId="8" r:id="rId3"/>
+    <sheet name="vaccines" sheetId="7" r:id="rId4"/>
+    <sheet name="choices" sheetId="3" r:id="rId5"/>
+    <sheet name="queries" sheetId="6" r:id="rId6"/>
+    <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="512">
   <si>
     <t>setting_name</t>
   </si>
@@ -1589,6 +1590,24 @@
   </si>
   <si>
     <t>ESCONS</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
   </si>
 </sst>
 </file>
@@ -2212,8 +2231,8 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2289,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F3" t="s">
         <v>143</v>
@@ -2336,7 +2355,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F9" t="s">
         <v>152</v>
@@ -2480,7 +2499,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>248</v>
@@ -2609,7 +2628,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -2698,7 +2717,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F46" t="s">
         <v>202</v>
@@ -3043,6 +3062,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D16542-802D-44C2-9BBB-C38197DEBA0F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93FDB5A-AD11-4FE5-B1A2-F35FCA6CC5F2}">
   <dimension ref="A1:J481"/>
   <sheetViews>
@@ -3183,7 +3251,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F11" t="s">
         <v>272</v>
@@ -3274,7 +3342,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
         <v>272</v>
@@ -3385,7 +3453,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F35" t="s">
         <v>303</v>
@@ -3476,7 +3544,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F46" t="s">
         <v>303</v>
@@ -3587,7 +3655,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F59" t="s">
         <v>344</v>
@@ -3678,7 +3746,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F70" t="s">
         <v>344</v>
@@ -3789,7 +3857,7 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F83" t="s">
         <v>414</v>
@@ -3880,7 +3948,7 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F94" t="s">
         <v>414</v>
@@ -3991,7 +4059,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F107" t="s">
         <v>349</v>
@@ -4082,7 +4150,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F118" t="s">
         <v>349</v>
@@ -4193,7 +4261,7 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F131" t="s">
         <v>420</v>
@@ -4284,7 +4352,7 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F142" t="s">
         <v>420</v>
@@ -4395,7 +4463,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F155" t="s">
         <v>355</v>
@@ -4486,7 +4554,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F166" t="s">
         <v>355</v>
@@ -4597,7 +4665,7 @@
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F179" t="s">
         <v>426</v>
@@ -4688,7 +4756,7 @@
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F190" t="s">
         <v>426</v>
@@ -4799,7 +4867,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F203" t="s">
         <v>362</v>
@@ -4890,7 +4958,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F214" t="s">
         <v>362</v>
@@ -5001,7 +5069,7 @@
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F227" t="s">
         <v>433</v>
@@ -5092,7 +5160,7 @@
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F238" t="s">
         <v>433</v>
@@ -5203,7 +5271,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F251" t="s">
         <v>367</v>
@@ -5294,7 +5362,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
         <v>367</v>
@@ -5405,7 +5473,7 @@
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
         <v>439</v>
@@ -5496,7 +5564,7 @@
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F286" t="s">
         <v>439</v>
@@ -5607,7 +5675,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F299" t="s">
         <v>373</v>
@@ -5698,7 +5766,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F310" t="s">
         <v>373</v>
@@ -5809,7 +5877,7 @@
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F323" t="s">
         <v>449</v>
@@ -5900,7 +5968,7 @@
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F334" t="s">
         <v>449</v>
@@ -6011,7 +6079,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F347" t="s">
         <v>379</v>
@@ -6102,7 +6170,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F358" t="s">
         <v>379</v>
@@ -6213,7 +6281,7 @@
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F371" t="s">
         <v>455</v>
@@ -6304,7 +6372,7 @@
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F382" t="s">
         <v>455</v>
@@ -6415,7 +6483,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F395" t="s">
         <v>385</v>
@@ -6506,7 +6574,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F406" t="s">
         <v>385</v>
@@ -6617,7 +6685,7 @@
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F419" t="s">
         <v>461</v>
@@ -6708,7 +6776,7 @@
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F430" t="s">
         <v>461</v>
@@ -6819,7 +6887,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F443" t="s">
         <v>391</v>
@@ -6910,7 +6978,7 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F454" t="s">
         <v>391</v>
@@ -7021,7 +7089,7 @@
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F467" t="s">
         <v>467</v>
@@ -7112,7 +7180,7 @@
     </row>
     <row r="478" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D478" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="F478" t="s">
         <v>467</v>
@@ -7143,7 +7211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:E74"/>
   <sheetViews>
@@ -8260,7 +8328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -8341,13 +8409,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8384,7 +8452,7 @@
         <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -8406,7 +8474,7 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -8483,7 +8551,7 @@
         <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -8527,7 +8595,7 @@
         <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -8582,7 +8650,7 @@
         <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -8692,7 +8760,7 @@
         <v>272</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -8736,7 +8804,7 @@
         <v>303</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -8780,7 +8848,7 @@
         <v>344</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -8824,7 +8892,7 @@
         <v>414</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -8868,7 +8936,7 @@
         <v>349</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -8912,7 +8980,7 @@
         <v>420</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -8956,7 +9024,7 @@
         <v>355</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -9000,7 +9068,7 @@
         <v>426</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -9044,7 +9112,7 @@
         <v>362</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -9088,7 +9156,7 @@
         <v>433</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -9132,7 +9200,7 @@
         <v>367</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -9176,7 +9244,7 @@
         <v>439</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -9220,7 +9288,7 @@
         <v>373</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -9264,7 +9332,7 @@
         <v>449</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -9308,7 +9376,7 @@
         <v>379</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -9352,7 +9420,7 @@
         <v>455</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -9396,7 +9464,7 @@
         <v>385</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -9440,7 +9508,7 @@
         <v>461</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -9484,7 +9552,7 @@
         <v>391</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -9528,7 +9596,7 @@
         <v>467</v>
       </c>
       <c r="B107" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -9792,7 +9860,7 @@
         <v>232</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>

--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D46D1C-00EE-425F-9AAC-BD0FA9CD8549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE677ED1-CF17-4BC9-9708-BF8972706CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="518">
   <si>
     <t>setting_name</t>
   </si>
@@ -799,9 +799,6 @@
     <t>data('ESTADOVIS') ==  '1' &amp;&amp; data('CICA') == null</t>
   </si>
   <si>
-    <t>data('CONSENTSIG') != '1' &amp;&amp; data('ESTADOVIS') == '1'</t>
-  </si>
-  <si>
     <t>ABPARTNVPRECIS</t>
   </si>
   <si>
@@ -821,9 +818,6 @@
   </si>
   <si>
     <t>CESCO</t>
-  </si>
-  <si>
-    <t>Has the woman attended school</t>
   </si>
   <si>
     <t>data('CESCO') == '1'</t>
@@ -1608,6 +1602,30 @@
   </si>
   <si>
     <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>data('GR') == '1'</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>data('GR') != '1'</t>
+  </si>
+  <si>
+    <t>data('CONSENTSIG') != '1' &amp;&amp; data('CONSENTSIG') != '5' &amp;&amp; data('ESTADOVIS') == '1'</t>
+  </si>
+  <si>
+    <t>Is the woman studying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen </t>
+  </si>
+  <si>
+    <t>pregnancies</t>
+  </si>
+  <si>
+    <t>MIFGRAVIDA</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1747,6 +1765,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1772,7 +1796,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1828,6 +1852,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -2228,11 +2253,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2314,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
         <v>143</v>
@@ -2355,7 +2380,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F9" t="s">
         <v>152</v>
@@ -2428,15 +2453,15 @@
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>138</v>
       </c>
@@ -2451,7 +2476,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>139</v>
       </c>
@@ -2459,7 +2484,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>138</v>
       </c>
@@ -2474,7 +2499,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>139</v>
       </c>
@@ -2482,7 +2507,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>138</v>
       </c>
@@ -2497,9 +2522,9 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>248</v>
@@ -2509,34 +2534,34 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>138</v>
       </c>
@@ -2553,7 +2578,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>138</v>
       </c>
@@ -2570,163 +2595,150 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
         <v>139</v>
       </c>
-      <c r="C32" t="s">
-        <v>193</v>
+      <c r="C31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>511</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" t="s">
-        <v>169</v>
-      </c>
-      <c r="J34" t="s">
-        <v>231</v>
+      <c r="B34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>139</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>509</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>507</v>
+      </c>
+      <c r="F41" t="s">
         <v>195</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
         <v>196</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H41" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
         <v>66</v>
       </c>
-      <c r="F39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F42" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" t="s">
+        <v>259</v>
+      </c>
+      <c r="H42" t="s">
         <v>260</v>
       </c>
-      <c r="H39" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" t="s">
         <v>95</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F43" t="s">
         <v>171</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G43" t="s">
         <v>172</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H43" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" t="s">
-        <v>199</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>509</v>
-      </c>
-      <c r="F46" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" t="s">
-        <v>203</v>
-      </c>
-      <c r="H46" t="s">
-        <v>204</v>
+      <c r="B46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -2734,31 +2746,53 @@
         <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
-      </c>
-      <c r="G47" t="s">
-        <v>258</v>
-      </c>
-      <c r="H47" t="s">
-        <v>259</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>15</v>
+      <c r="D49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F49" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>140</v>
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50" t="s">
+        <v>257</v>
+      </c>
+      <c r="H50" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2768,231 +2802,225 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" t="s">
-        <v>175</v>
+      <c r="B53" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>139</v>
       </c>
-      <c r="C54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" t="s">
-        <v>178</v>
-      </c>
-      <c r="G55" t="s">
-        <v>179</v>
-      </c>
-      <c r="H55" t="s">
-        <v>180</v>
+      <c r="C55" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>15</v>
+      <c r="D57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>14</v>
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H59" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" t="s">
-        <v>183</v>
-      </c>
-      <c r="G60" t="s">
-        <v>184</v>
-      </c>
-      <c r="H60" t="s">
-        <v>185</v>
+      <c r="B60" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" t="s">
-        <v>188</v>
-      </c>
-      <c r="H62" t="s">
-        <v>180</v>
+      <c r="B62" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" t="s">
-        <v>262</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>236</v>
-      </c>
-      <c r="F68" t="s">
-        <v>265</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" t="s">
-        <v>504</v>
-      </c>
-      <c r="F69" t="s">
-        <v>505</v>
-      </c>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
+      <c r="D71" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>261</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
       <c r="B72" t="s">
         <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
+      <c r="D73" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H74" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="E74" t="s">
+        <v>502</v>
+      </c>
+      <c r="F74" t="s">
+        <v>503</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>208</v>
-      </c>
-      <c r="E75" t="s">
-        <v>209</v>
-      </c>
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
       <c r="B76" t="s">
         <v>15</v>
       </c>
@@ -3000,58 +3028,127 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="C77" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
       <c r="B78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" t="s">
         <v>205</v>
       </c>
-      <c r="F79" t="s">
-        <v>267</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F84" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" t="s">
         <v>206</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H84" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>139</v>
       </c>
-      <c r="C81" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="C86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
-      <c r="B84" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3079,30 +3176,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
         <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3167,13 +3264,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3189,10 +3286,10 @@
         <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3205,7 +3302,7 @@
         <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3218,7 +3315,7 @@
         <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,13 +3323,13 @@
         <v>138</v>
       </c>
       <c r="E9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" t="s">
         <v>269</v>
-      </c>
-      <c r="F9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,24 +3337,24 @@
         <v>138</v>
       </c>
       <c r="E10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" t="s">
         <v>274</v>
-      </c>
-      <c r="F10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3267,12 +3364,12 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3282,7 +3379,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3295,13 +3392,13 @@
         <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,7 +3406,7 @@
         <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3317,13 +3414,13 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" t="s">
         <v>269</v>
-      </c>
-      <c r="F20" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3331,24 +3428,24 @@
         <v>138</v>
       </c>
       <c r="E21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G21" t="s">
         <v>274</v>
-      </c>
-      <c r="F21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,13 +3466,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
         <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,10 +3488,10 @@
         <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3407,7 +3504,7 @@
         <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3420,7 +3517,7 @@
         <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -3428,13 +3525,13 @@
         <v>138</v>
       </c>
       <c r="E33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
         <v>269</v>
-      </c>
-      <c r="F33" t="s">
-        <v>302</v>
-      </c>
-      <c r="G33" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3442,24 +3539,24 @@
         <v>138</v>
       </c>
       <c r="E34" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" t="s">
         <v>274</v>
-      </c>
-      <c r="F34" t="s">
-        <v>304</v>
-      </c>
-      <c r="G34" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -3469,12 +3566,12 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -3484,7 +3581,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -3497,13 +3594,13 @@
         <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -3511,7 +3608,7 @@
         <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -3519,13 +3616,13 @@
         <v>138</v>
       </c>
       <c r="E44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
         <v>269</v>
-      </c>
-      <c r="F44" t="s">
-        <v>302</v>
-      </c>
-      <c r="G44" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -3533,24 +3630,24 @@
         <v>138</v>
       </c>
       <c r="E45" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" t="s">
         <v>274</v>
-      </c>
-      <c r="F45" t="s">
-        <v>304</v>
-      </c>
-      <c r="G45" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -3571,13 +3668,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3593,10 +3690,10 @@
         <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3609,7 +3706,7 @@
         <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,7 +3719,7 @@
         <v>225</v>
       </c>
       <c r="G56" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3630,13 +3727,13 @@
         <v>138</v>
       </c>
       <c r="E57" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" t="s">
+        <v>341</v>
+      </c>
+      <c r="G57" t="s">
         <v>269</v>
-      </c>
-      <c r="F57" t="s">
-        <v>343</v>
-      </c>
-      <c r="G57" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3644,24 +3741,24 @@
         <v>138</v>
       </c>
       <c r="E58" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" t="s">
+        <v>343</v>
+      </c>
+      <c r="G58" t="s">
         <v>274</v>
-      </c>
-      <c r="F58" t="s">
-        <v>345</v>
-      </c>
-      <c r="G58" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,12 +3768,12 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3686,7 +3783,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3699,13 +3796,13 @@
         <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F66" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3713,7 +3810,7 @@
         <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,13 +3818,13 @@
         <v>138</v>
       </c>
       <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" t="s">
+        <v>341</v>
+      </c>
+      <c r="G68" t="s">
         <v>269</v>
-      </c>
-      <c r="F68" t="s">
-        <v>343</v>
-      </c>
-      <c r="G68" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,24 +3832,24 @@
         <v>138</v>
       </c>
       <c r="E69" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" t="s">
+        <v>343</v>
+      </c>
+      <c r="G69" t="s">
         <v>274</v>
-      </c>
-      <c r="F69" t="s">
-        <v>345</v>
-      </c>
-      <c r="G69" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F70" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,13 +3870,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B74" t="s">
         <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,10 +3892,10 @@
         <v>205</v>
       </c>
       <c r="F76" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3811,7 +3908,7 @@
         <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,7 +3921,7 @@
         <v>225</v>
       </c>
       <c r="G80" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -3832,13 +3929,13 @@
         <v>138</v>
       </c>
       <c r="E81" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" t="s">
+        <v>411</v>
+      </c>
+      <c r="G81" t="s">
         <v>269</v>
-      </c>
-      <c r="F81" t="s">
-        <v>413</v>
-      </c>
-      <c r="G81" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
@@ -3846,24 +3943,24 @@
         <v>138</v>
       </c>
       <c r="E82" t="s">
+        <v>272</v>
+      </c>
+      <c r="F82" t="s">
+        <v>413</v>
+      </c>
+      <c r="G82" t="s">
         <v>274</v>
-      </c>
-      <c r="F82" t="s">
-        <v>415</v>
-      </c>
-      <c r="G82" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
@@ -3873,12 +3970,12 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -3888,7 +3985,7 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -3901,13 +3998,13 @@
         <v>138</v>
       </c>
       <c r="E90" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F90" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -3915,7 +4012,7 @@
         <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
@@ -3923,13 +4020,13 @@
         <v>138</v>
       </c>
       <c r="E92" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" t="s">
+        <v>411</v>
+      </c>
+      <c r="G92" t="s">
         <v>269</v>
-      </c>
-      <c r="F92" t="s">
-        <v>413</v>
-      </c>
-      <c r="G92" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -3937,24 +4034,24 @@
         <v>138</v>
       </c>
       <c r="E93" t="s">
+        <v>272</v>
+      </c>
+      <c r="F93" t="s">
+        <v>413</v>
+      </c>
+      <c r="G93" t="s">
         <v>274</v>
-      </c>
-      <c r="F93" t="s">
-        <v>415</v>
-      </c>
-      <c r="G93" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
@@ -3975,13 +4072,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B98" t="s">
         <v>139</v>
       </c>
       <c r="C98" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,10 +4094,10 @@
         <v>205</v>
       </c>
       <c r="F100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,7 +4110,7 @@
         <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,7 +4123,7 @@
         <v>225</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4034,13 +4131,13 @@
         <v>138</v>
       </c>
       <c r="E105" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" t="s">
+        <v>346</v>
+      </c>
+      <c r="G105" t="s">
         <v>269</v>
-      </c>
-      <c r="F105" t="s">
-        <v>348</v>
-      </c>
-      <c r="G105" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,24 +4145,24 @@
         <v>138</v>
       </c>
       <c r="E106" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" t="s">
+        <v>348</v>
+      </c>
+      <c r="G106" t="s">
         <v>274</v>
-      </c>
-      <c r="F106" t="s">
-        <v>350</v>
-      </c>
-      <c r="G106" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F107" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G107" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4075,12 +4172,12 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4090,7 +4187,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4103,13 +4200,13 @@
         <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F114" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4117,7 +4214,7 @@
         <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4125,13 +4222,13 @@
         <v>138</v>
       </c>
       <c r="E116" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" t="s">
+        <v>346</v>
+      </c>
+      <c r="G116" t="s">
         <v>269</v>
-      </c>
-      <c r="F116" t="s">
-        <v>348</v>
-      </c>
-      <c r="G116" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4139,24 +4236,24 @@
         <v>138</v>
       </c>
       <c r="E117" t="s">
+        <v>272</v>
+      </c>
+      <c r="F117" t="s">
+        <v>348</v>
+      </c>
+      <c r="G117" t="s">
         <v>274</v>
-      </c>
-      <c r="F117" t="s">
-        <v>350</v>
-      </c>
-      <c r="G117" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F118" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G118" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4177,13 +4274,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B122" t="s">
         <v>139</v>
       </c>
       <c r="C122" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4199,10 +4296,10 @@
         <v>205</v>
       </c>
       <c r="F124" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G124" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4215,7 +4312,7 @@
         <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4228,7 +4325,7 @@
         <v>225</v>
       </c>
       <c r="G128" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -4236,13 +4333,13 @@
         <v>138</v>
       </c>
       <c r="E129" t="s">
+        <v>267</v>
+      </c>
+      <c r="F129" t="s">
+        <v>417</v>
+      </c>
+      <c r="G129" t="s">
         <v>269</v>
-      </c>
-      <c r="F129" t="s">
-        <v>419</v>
-      </c>
-      <c r="G129" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -4250,24 +4347,24 @@
         <v>138</v>
       </c>
       <c r="E130" t="s">
+        <v>272</v>
+      </c>
+      <c r="F130" t="s">
+        <v>419</v>
+      </c>
+      <c r="G130" t="s">
         <v>274</v>
-      </c>
-      <c r="F130" t="s">
-        <v>421</v>
-      </c>
-      <c r="G130" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F131" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G131" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
@@ -4277,12 +4374,12 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -4292,7 +4389,7 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -4305,13 +4402,13 @@
         <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F138" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -4319,7 +4416,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -4327,13 +4424,13 @@
         <v>138</v>
       </c>
       <c r="E140" t="s">
+        <v>267</v>
+      </c>
+      <c r="F140" t="s">
+        <v>417</v>
+      </c>
+      <c r="G140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>419</v>
-      </c>
-      <c r="G140" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -4341,24 +4438,24 @@
         <v>138</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
+        <v>419</v>
+      </c>
+      <c r="G141" t="s">
         <v>274</v>
-      </c>
-      <c r="F141" t="s">
-        <v>421</v>
-      </c>
-      <c r="G141" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F142" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
@@ -4379,13 +4476,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B146" t="s">
         <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4401,10 +4498,10 @@
         <v>205</v>
       </c>
       <c r="F148" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4417,7 +4514,7 @@
         <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4430,7 +4527,7 @@
         <v>225</v>
       </c>
       <c r="G152" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4438,13 +4535,13 @@
         <v>138</v>
       </c>
       <c r="E153" t="s">
+        <v>267</v>
+      </c>
+      <c r="F153" t="s">
+        <v>352</v>
+      </c>
+      <c r="G153" t="s">
         <v>269</v>
-      </c>
-      <c r="F153" t="s">
-        <v>354</v>
-      </c>
-      <c r="G153" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4452,24 +4549,24 @@
         <v>138</v>
       </c>
       <c r="E154" t="s">
+        <v>272</v>
+      </c>
+      <c r="F154" t="s">
+        <v>354</v>
+      </c>
+      <c r="G154" t="s">
         <v>274</v>
-      </c>
-      <c r="F154" t="s">
-        <v>356</v>
-      </c>
-      <c r="G154" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F155" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G155" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,12 +4576,12 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,7 +4591,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4507,13 +4604,13 @@
         <v>138</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F162" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4521,7 +4618,7 @@
         <v>139</v>
       </c>
       <c r="C163" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4529,13 +4626,13 @@
         <v>138</v>
       </c>
       <c r="E164" t="s">
+        <v>267</v>
+      </c>
+      <c r="F164" t="s">
+        <v>352</v>
+      </c>
+      <c r="G164" t="s">
         <v>269</v>
-      </c>
-      <c r="F164" t="s">
-        <v>354</v>
-      </c>
-      <c r="G164" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,24 +4640,24 @@
         <v>138</v>
       </c>
       <c r="E165" t="s">
+        <v>272</v>
+      </c>
+      <c r="F165" t="s">
+        <v>354</v>
+      </c>
+      <c r="G165" t="s">
         <v>274</v>
-      </c>
-      <c r="F165" t="s">
-        <v>356</v>
-      </c>
-      <c r="G165" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F166" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G166" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4581,13 +4678,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B170" t="s">
         <v>139</v>
       </c>
       <c r="C170" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4603,10 +4700,10 @@
         <v>205</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G172" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4619,7 +4716,7 @@
         <v>139</v>
       </c>
       <c r="C174" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4632,7 +4729,7 @@
         <v>225</v>
       </c>
       <c r="G176" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
@@ -4640,13 +4737,13 @@
         <v>138</v>
       </c>
       <c r="E177" t="s">
+        <v>267</v>
+      </c>
+      <c r="F177" t="s">
+        <v>423</v>
+      </c>
+      <c r="G177" t="s">
         <v>269</v>
-      </c>
-      <c r="F177" t="s">
-        <v>425</v>
-      </c>
-      <c r="G177" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
@@ -4654,24 +4751,24 @@
         <v>138</v>
       </c>
       <c r="E178" t="s">
+        <v>272</v>
+      </c>
+      <c r="F178" t="s">
+        <v>425</v>
+      </c>
+      <c r="G178" t="s">
         <v>274</v>
-      </c>
-      <c r="F178" t="s">
-        <v>427</v>
-      </c>
-      <c r="G178" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F179" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G179" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
@@ -4681,12 +4778,12 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
@@ -4696,7 +4793,7 @@
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
@@ -4709,13 +4806,13 @@
         <v>138</v>
       </c>
       <c r="E186" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F186" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
@@ -4723,7 +4820,7 @@
         <v>139</v>
       </c>
       <c r="C187" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
@@ -4731,13 +4828,13 @@
         <v>138</v>
       </c>
       <c r="E188" t="s">
+        <v>267</v>
+      </c>
+      <c r="F188" t="s">
+        <v>423</v>
+      </c>
+      <c r="G188" t="s">
         <v>269</v>
-      </c>
-      <c r="F188" t="s">
-        <v>425</v>
-      </c>
-      <c r="G188" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
@@ -4745,24 +4842,24 @@
         <v>138</v>
       </c>
       <c r="E189" t="s">
+        <v>272</v>
+      </c>
+      <c r="F189" t="s">
+        <v>425</v>
+      </c>
+      <c r="G189" t="s">
         <v>274</v>
-      </c>
-      <c r="F189" t="s">
-        <v>427</v>
-      </c>
-      <c r="G189" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F190" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G190" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
@@ -4783,13 +4880,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B194" t="s">
         <v>139</v>
       </c>
       <c r="C194" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4805,10 +4902,10 @@
         <v>205</v>
       </c>
       <c r="F196" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G196" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -4821,7 +4918,7 @@
         <v>139</v>
       </c>
       <c r="C198" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,7 +4931,7 @@
         <v>225</v>
       </c>
       <c r="G200" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -4842,13 +4939,13 @@
         <v>138</v>
       </c>
       <c r="E201" t="s">
+        <v>267</v>
+      </c>
+      <c r="F201" t="s">
+        <v>359</v>
+      </c>
+      <c r="G201" t="s">
         <v>269</v>
-      </c>
-      <c r="F201" t="s">
-        <v>361</v>
-      </c>
-      <c r="G201" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -4856,24 +4953,24 @@
         <v>138</v>
       </c>
       <c r="E202" t="s">
+        <v>272</v>
+      </c>
+      <c r="F202" t="s">
+        <v>361</v>
+      </c>
+      <c r="G202" t="s">
         <v>274</v>
-      </c>
-      <c r="F202" t="s">
-        <v>363</v>
-      </c>
-      <c r="G202" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F203" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G203" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4883,12 +4980,12 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4898,7 +4995,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,13 +5008,13 @@
         <v>138</v>
       </c>
       <c r="E210" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F210" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -4925,7 +5022,7 @@
         <v>139</v>
       </c>
       <c r="C211" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -4933,13 +5030,13 @@
         <v>138</v>
       </c>
       <c r="E212" t="s">
+        <v>267</v>
+      </c>
+      <c r="F212" t="s">
+        <v>359</v>
+      </c>
+      <c r="G212" t="s">
         <v>269</v>
-      </c>
-      <c r="F212" t="s">
-        <v>361</v>
-      </c>
-      <c r="G212" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -4947,24 +5044,24 @@
         <v>138</v>
       </c>
       <c r="E213" t="s">
+        <v>272</v>
+      </c>
+      <c r="F213" t="s">
+        <v>361</v>
+      </c>
+      <c r="G213" t="s">
         <v>274</v>
-      </c>
-      <c r="F213" t="s">
-        <v>363</v>
-      </c>
-      <c r="G213" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F214" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G214" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -4985,13 +5082,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B218" t="s">
         <v>139</v>
       </c>
       <c r="C218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5007,10 +5104,10 @@
         <v>205</v>
       </c>
       <c r="F220" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G220" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,7 +5120,7 @@
         <v>139</v>
       </c>
       <c r="C222" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5036,7 +5133,7 @@
         <v>225</v>
       </c>
       <c r="G224" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
@@ -5044,13 +5141,13 @@
         <v>138</v>
       </c>
       <c r="E225" t="s">
+        <v>267</v>
+      </c>
+      <c r="F225" t="s">
+        <v>430</v>
+      </c>
+      <c r="G225" t="s">
         <v>269</v>
-      </c>
-      <c r="F225" t="s">
-        <v>432</v>
-      </c>
-      <c r="G225" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
@@ -5058,24 +5155,24 @@
         <v>138</v>
       </c>
       <c r="E226" t="s">
+        <v>272</v>
+      </c>
+      <c r="F226" t="s">
+        <v>432</v>
+      </c>
+      <c r="G226" t="s">
         <v>274</v>
-      </c>
-      <c r="F226" t="s">
-        <v>434</v>
-      </c>
-      <c r="G226" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F227" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G227" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
@@ -5085,12 +5182,12 @@
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -5100,7 +5197,7 @@
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
@@ -5113,13 +5210,13 @@
         <v>138</v>
       </c>
       <c r="E234" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F234" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G234" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
@@ -5127,7 +5224,7 @@
         <v>139</v>
       </c>
       <c r="C235" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
@@ -5135,13 +5232,13 @@
         <v>138</v>
       </c>
       <c r="E236" t="s">
+        <v>267</v>
+      </c>
+      <c r="F236" t="s">
+        <v>430</v>
+      </c>
+      <c r="G236" t="s">
         <v>269</v>
-      </c>
-      <c r="F236" t="s">
-        <v>432</v>
-      </c>
-      <c r="G236" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
@@ -5149,24 +5246,24 @@
         <v>138</v>
       </c>
       <c r="E237" t="s">
+        <v>272</v>
+      </c>
+      <c r="F237" t="s">
+        <v>432</v>
+      </c>
+      <c r="G237" t="s">
         <v>274</v>
-      </c>
-      <c r="F237" t="s">
-        <v>434</v>
-      </c>
-      <c r="G237" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F238" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G238" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
@@ -5187,13 +5284,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B242" t="s">
         <v>139</v>
       </c>
       <c r="C242" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -5209,10 +5306,10 @@
         <v>205</v>
       </c>
       <c r="F244" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G244" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,7 +5322,7 @@
         <v>139</v>
       </c>
       <c r="C246" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -5238,7 +5335,7 @@
         <v>225</v>
       </c>
       <c r="G248" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -5246,13 +5343,13 @@
         <v>138</v>
       </c>
       <c r="E249" t="s">
+        <v>267</v>
+      </c>
+      <c r="F249" t="s">
+        <v>364</v>
+      </c>
+      <c r="G249" t="s">
         <v>269</v>
-      </c>
-      <c r="F249" t="s">
-        <v>366</v>
-      </c>
-      <c r="G249" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -5260,24 +5357,24 @@
         <v>138</v>
       </c>
       <c r="E250" t="s">
+        <v>272</v>
+      </c>
+      <c r="F250" t="s">
+        <v>366</v>
+      </c>
+      <c r="G250" t="s">
         <v>274</v>
-      </c>
-      <c r="F250" t="s">
-        <v>368</v>
-      </c>
-      <c r="G250" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F251" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G251" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -5287,12 +5384,12 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -5302,7 +5399,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -5315,13 +5412,13 @@
         <v>138</v>
       </c>
       <c r="E258" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F258" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G258" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -5329,7 +5426,7 @@
         <v>139</v>
       </c>
       <c r="C259" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -5337,13 +5434,13 @@
         <v>138</v>
       </c>
       <c r="E260" t="s">
+        <v>267</v>
+      </c>
+      <c r="F260" t="s">
+        <v>364</v>
+      </c>
+      <c r="G260" t="s">
         <v>269</v>
-      </c>
-      <c r="F260" t="s">
-        <v>366</v>
-      </c>
-      <c r="G260" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -5351,24 +5448,24 @@
         <v>138</v>
       </c>
       <c r="E261" t="s">
+        <v>272</v>
+      </c>
+      <c r="F261" t="s">
+        <v>366</v>
+      </c>
+      <c r="G261" t="s">
         <v>274</v>
-      </c>
-      <c r="F261" t="s">
-        <v>368</v>
-      </c>
-      <c r="G261" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F262" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G262" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -5389,13 +5486,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B266" t="s">
         <v>139</v>
       </c>
       <c r="C266" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -5411,10 +5508,10 @@
         <v>205</v>
       </c>
       <c r="F268" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G268" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -5427,7 +5524,7 @@
         <v>139</v>
       </c>
       <c r="C270" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -5440,7 +5537,7 @@
         <v>225</v>
       </c>
       <c r="G272" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
@@ -5448,13 +5545,13 @@
         <v>138</v>
       </c>
       <c r="E273" t="s">
+        <v>267</v>
+      </c>
+      <c r="F273" t="s">
+        <v>436</v>
+      </c>
+      <c r="G273" t="s">
         <v>269</v>
-      </c>
-      <c r="F273" t="s">
-        <v>438</v>
-      </c>
-      <c r="G273" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
@@ -5462,24 +5559,24 @@
         <v>138</v>
       </c>
       <c r="E274" t="s">
+        <v>272</v>
+      </c>
+      <c r="F274" t="s">
+        <v>438</v>
+      </c>
+      <c r="G274" t="s">
         <v>274</v>
-      </c>
-      <c r="F274" t="s">
-        <v>440</v>
-      </c>
-      <c r="G274" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F275" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G275" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
@@ -5489,12 +5586,12 @@
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
@@ -5504,7 +5601,7 @@
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
@@ -5517,13 +5614,13 @@
         <v>138</v>
       </c>
       <c r="E282" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F282" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G282" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
@@ -5531,7 +5628,7 @@
         <v>139</v>
       </c>
       <c r="C283" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
@@ -5539,13 +5636,13 @@
         <v>138</v>
       </c>
       <c r="E284" t="s">
+        <v>267</v>
+      </c>
+      <c r="F284" t="s">
+        <v>436</v>
+      </c>
+      <c r="G284" t="s">
         <v>269</v>
-      </c>
-      <c r="F284" t="s">
-        <v>438</v>
-      </c>
-      <c r="G284" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
@@ -5553,24 +5650,24 @@
         <v>138</v>
       </c>
       <c r="E285" t="s">
+        <v>272</v>
+      </c>
+      <c r="F285" t="s">
+        <v>438</v>
+      </c>
+      <c r="G285" t="s">
         <v>274</v>
-      </c>
-      <c r="F285" t="s">
-        <v>440</v>
-      </c>
-      <c r="G285" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F286" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G286" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
@@ -5591,13 +5688,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B290" t="s">
         <v>139</v>
       </c>
       <c r="C290" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -5613,10 +5710,10 @@
         <v>205</v>
       </c>
       <c r="F292" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G292" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,7 +5726,7 @@
         <v>139</v>
       </c>
       <c r="C294" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -5642,7 +5739,7 @@
         <v>225</v>
       </c>
       <c r="G296" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -5650,13 +5747,13 @@
         <v>138</v>
       </c>
       <c r="E297" t="s">
+        <v>267</v>
+      </c>
+      <c r="F297" t="s">
+        <v>370</v>
+      </c>
+      <c r="G297" t="s">
         <v>269</v>
-      </c>
-      <c r="F297" t="s">
-        <v>372</v>
-      </c>
-      <c r="G297" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -5664,24 +5761,24 @@
         <v>138</v>
       </c>
       <c r="E298" t="s">
+        <v>272</v>
+      </c>
+      <c r="F298" t="s">
+        <v>372</v>
+      </c>
+      <c r="G298" t="s">
         <v>274</v>
-      </c>
-      <c r="F298" t="s">
-        <v>374</v>
-      </c>
-      <c r="G298" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F299" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G299" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,12 +5788,12 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -5706,7 +5803,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -5719,13 +5816,13 @@
         <v>138</v>
       </c>
       <c r="E306" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F306" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G306" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -5733,7 +5830,7 @@
         <v>139</v>
       </c>
       <c r="C307" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -5741,13 +5838,13 @@
         <v>138</v>
       </c>
       <c r="E308" t="s">
+        <v>267</v>
+      </c>
+      <c r="F308" t="s">
+        <v>370</v>
+      </c>
+      <c r="G308" t="s">
         <v>269</v>
-      </c>
-      <c r="F308" t="s">
-        <v>372</v>
-      </c>
-      <c r="G308" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -5755,24 +5852,24 @@
         <v>138</v>
       </c>
       <c r="E309" t="s">
+        <v>272</v>
+      </c>
+      <c r="F309" t="s">
+        <v>372</v>
+      </c>
+      <c r="G309" t="s">
         <v>274</v>
-      </c>
-      <c r="F309" t="s">
-        <v>374</v>
-      </c>
-      <c r="G309" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F310" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G310" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -5793,13 +5890,13 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B314" t="s">
         <v>139</v>
       </c>
       <c r="C314" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -5815,10 +5912,10 @@
         <v>205</v>
       </c>
       <c r="F316" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G316" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,7 +5928,7 @@
         <v>139</v>
       </c>
       <c r="C318" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -5844,7 +5941,7 @@
         <v>225</v>
       </c>
       <c r="G320" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
@@ -5852,13 +5949,13 @@
         <v>138</v>
       </c>
       <c r="E321" t="s">
+        <v>267</v>
+      </c>
+      <c r="F321" t="s">
+        <v>446</v>
+      </c>
+      <c r="G321" t="s">
         <v>269</v>
-      </c>
-      <c r="F321" t="s">
-        <v>448</v>
-      </c>
-      <c r="G321" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
@@ -5866,24 +5963,24 @@
         <v>138</v>
       </c>
       <c r="E322" t="s">
+        <v>272</v>
+      </c>
+      <c r="F322" t="s">
+        <v>448</v>
+      </c>
+      <c r="G322" t="s">
         <v>274</v>
-      </c>
-      <c r="F322" t="s">
-        <v>450</v>
-      </c>
-      <c r="G322" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F323" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G323" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
@@ -5893,12 +5990,12 @@
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
@@ -5908,7 +6005,7 @@
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
@@ -5921,13 +6018,13 @@
         <v>138</v>
       </c>
       <c r="E330" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F330" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G330" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
@@ -5935,7 +6032,7 @@
         <v>139</v>
       </c>
       <c r="C331" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
@@ -5943,13 +6040,13 @@
         <v>138</v>
       </c>
       <c r="E332" t="s">
+        <v>267</v>
+      </c>
+      <c r="F332" t="s">
+        <v>446</v>
+      </c>
+      <c r="G332" t="s">
         <v>269</v>
-      </c>
-      <c r="F332" t="s">
-        <v>448</v>
-      </c>
-      <c r="G332" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
@@ -5957,24 +6054,24 @@
         <v>138</v>
       </c>
       <c r="E333" t="s">
+        <v>272</v>
+      </c>
+      <c r="F333" t="s">
+        <v>448</v>
+      </c>
+      <c r="G333" t="s">
         <v>274</v>
-      </c>
-      <c r="F333" t="s">
-        <v>450</v>
-      </c>
-      <c r="G333" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F334" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G334" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
@@ -5995,13 +6092,13 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B338" t="s">
         <v>139</v>
       </c>
       <c r="C338" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -6017,10 +6114,10 @@
         <v>205</v>
       </c>
       <c r="F340" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G340" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -6033,7 +6130,7 @@
         <v>139</v>
       </c>
       <c r="C342" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -6046,7 +6143,7 @@
         <v>225</v>
       </c>
       <c r="G344" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -6054,13 +6151,13 @@
         <v>138</v>
       </c>
       <c r="E345" t="s">
+        <v>267</v>
+      </c>
+      <c r="F345" t="s">
+        <v>376</v>
+      </c>
+      <c r="G345" t="s">
         <v>269</v>
-      </c>
-      <c r="F345" t="s">
-        <v>378</v>
-      </c>
-      <c r="G345" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -6068,24 +6165,24 @@
         <v>138</v>
       </c>
       <c r="E346" t="s">
+        <v>272</v>
+      </c>
+      <c r="F346" t="s">
+        <v>378</v>
+      </c>
+      <c r="G346" t="s">
         <v>274</v>
-      </c>
-      <c r="F346" t="s">
-        <v>380</v>
-      </c>
-      <c r="G346" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F347" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G347" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -6095,12 +6192,12 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -6110,7 +6207,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -6123,13 +6220,13 @@
         <v>138</v>
       </c>
       <c r="E354" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F354" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G354" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -6137,7 +6234,7 @@
         <v>139</v>
       </c>
       <c r="C355" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -6145,13 +6242,13 @@
         <v>138</v>
       </c>
       <c r="E356" t="s">
+        <v>267</v>
+      </c>
+      <c r="F356" t="s">
+        <v>376</v>
+      </c>
+      <c r="G356" t="s">
         <v>269</v>
-      </c>
-      <c r="F356" t="s">
-        <v>378</v>
-      </c>
-      <c r="G356" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -6159,24 +6256,24 @@
         <v>138</v>
       </c>
       <c r="E357" t="s">
+        <v>272</v>
+      </c>
+      <c r="F357" t="s">
+        <v>378</v>
+      </c>
+      <c r="G357" t="s">
         <v>274</v>
-      </c>
-      <c r="F357" t="s">
-        <v>380</v>
-      </c>
-      <c r="G357" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F358" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G358" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -6197,13 +6294,13 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B362" t="s">
         <v>139</v>
       </c>
       <c r="C362" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -6219,10 +6316,10 @@
         <v>205</v>
       </c>
       <c r="F364" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G364" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -6235,7 +6332,7 @@
         <v>139</v>
       </c>
       <c r="C366" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -6248,7 +6345,7 @@
         <v>225</v>
       </c>
       <c r="G368" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
@@ -6256,13 +6353,13 @@
         <v>138</v>
       </c>
       <c r="E369" t="s">
+        <v>267</v>
+      </c>
+      <c r="F369" t="s">
+        <v>452</v>
+      </c>
+      <c r="G369" t="s">
         <v>269</v>
-      </c>
-      <c r="F369" t="s">
-        <v>454</v>
-      </c>
-      <c r="G369" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.25">
@@ -6270,24 +6367,24 @@
         <v>138</v>
       </c>
       <c r="E370" t="s">
+        <v>272</v>
+      </c>
+      <c r="F370" t="s">
+        <v>454</v>
+      </c>
+      <c r="G370" t="s">
         <v>274</v>
-      </c>
-      <c r="F370" t="s">
-        <v>456</v>
-      </c>
-      <c r="G370" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F371" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G371" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.25">
@@ -6297,12 +6394,12 @@
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
@@ -6312,7 +6409,7 @@
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
@@ -6325,13 +6422,13 @@
         <v>138</v>
       </c>
       <c r="E378" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F378" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G378" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
@@ -6339,7 +6436,7 @@
         <v>139</v>
       </c>
       <c r="C379" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
@@ -6347,13 +6444,13 @@
         <v>138</v>
       </c>
       <c r="E380" t="s">
+        <v>267</v>
+      </c>
+      <c r="F380" t="s">
+        <v>452</v>
+      </c>
+      <c r="G380" t="s">
         <v>269</v>
-      </c>
-      <c r="F380" t="s">
-        <v>454</v>
-      </c>
-      <c r="G380" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
@@ -6361,24 +6458,24 @@
         <v>138</v>
       </c>
       <c r="E381" t="s">
+        <v>272</v>
+      </c>
+      <c r="F381" t="s">
+        <v>454</v>
+      </c>
+      <c r="G381" t="s">
         <v>274</v>
-      </c>
-      <c r="F381" t="s">
-        <v>456</v>
-      </c>
-      <c r="G381" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F382" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G382" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
@@ -6399,13 +6496,13 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B386" t="s">
         <v>139</v>
       </c>
       <c r="C386" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -6421,10 +6518,10 @@
         <v>205</v>
       </c>
       <c r="F388" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G388" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -6437,7 +6534,7 @@
         <v>139</v>
       </c>
       <c r="C390" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -6450,7 +6547,7 @@
         <v>225</v>
       </c>
       <c r="G392" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -6458,13 +6555,13 @@
         <v>138</v>
       </c>
       <c r="E393" t="s">
+        <v>267</v>
+      </c>
+      <c r="F393" t="s">
+        <v>382</v>
+      </c>
+      <c r="G393" t="s">
         <v>269</v>
-      </c>
-      <c r="F393" t="s">
-        <v>384</v>
-      </c>
-      <c r="G393" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -6472,24 +6569,24 @@
         <v>138</v>
       </c>
       <c r="E394" t="s">
+        <v>272</v>
+      </c>
+      <c r="F394" t="s">
+        <v>384</v>
+      </c>
+      <c r="G394" t="s">
         <v>274</v>
-      </c>
-      <c r="F394" t="s">
-        <v>386</v>
-      </c>
-      <c r="G394" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F395" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G395" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -6499,12 +6596,12 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -6514,7 +6611,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -6527,13 +6624,13 @@
         <v>138</v>
       </c>
       <c r="E402" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F402" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G402" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -6541,7 +6638,7 @@
         <v>139</v>
       </c>
       <c r="C403" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -6549,13 +6646,13 @@
         <v>138</v>
       </c>
       <c r="E404" t="s">
+        <v>267</v>
+      </c>
+      <c r="F404" t="s">
+        <v>382</v>
+      </c>
+      <c r="G404" t="s">
         <v>269</v>
-      </c>
-      <c r="F404" t="s">
-        <v>384</v>
-      </c>
-      <c r="G404" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -6563,24 +6660,24 @@
         <v>138</v>
       </c>
       <c r="E405" t="s">
+        <v>272</v>
+      </c>
+      <c r="F405" t="s">
+        <v>384</v>
+      </c>
+      <c r="G405" t="s">
         <v>274</v>
-      </c>
-      <c r="F405" t="s">
-        <v>386</v>
-      </c>
-      <c r="G405" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F406" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G406" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -6601,13 +6698,13 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B410" t="s">
         <v>139</v>
       </c>
       <c r="C410" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -6623,10 +6720,10 @@
         <v>205</v>
       </c>
       <c r="F412" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G412" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -6639,7 +6736,7 @@
         <v>139</v>
       </c>
       <c r="C414" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -6652,7 +6749,7 @@
         <v>225</v>
       </c>
       <c r="G416" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
@@ -6660,13 +6757,13 @@
         <v>138</v>
       </c>
       <c r="E417" t="s">
+        <v>267</v>
+      </c>
+      <c r="F417" t="s">
+        <v>458</v>
+      </c>
+      <c r="G417" t="s">
         <v>269</v>
-      </c>
-      <c r="F417" t="s">
-        <v>460</v>
-      </c>
-      <c r="G417" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.25">
@@ -6674,24 +6771,24 @@
         <v>138</v>
       </c>
       <c r="E418" t="s">
+        <v>272</v>
+      </c>
+      <c r="F418" t="s">
+        <v>460</v>
+      </c>
+      <c r="G418" t="s">
         <v>274</v>
-      </c>
-      <c r="F418" t="s">
-        <v>462</v>
-      </c>
-      <c r="G418" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F419" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G419" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.25">
@@ -6701,12 +6798,12 @@
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.25">
@@ -6716,7 +6813,7 @@
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.25">
@@ -6729,13 +6826,13 @@
         <v>138</v>
       </c>
       <c r="E426" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F426" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G426" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.25">
@@ -6743,7 +6840,7 @@
         <v>139</v>
       </c>
       <c r="C427" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.25">
@@ -6751,13 +6848,13 @@
         <v>138</v>
       </c>
       <c r="E428" t="s">
+        <v>267</v>
+      </c>
+      <c r="F428" t="s">
+        <v>458</v>
+      </c>
+      <c r="G428" t="s">
         <v>269</v>
-      </c>
-      <c r="F428" t="s">
-        <v>460</v>
-      </c>
-      <c r="G428" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.25">
@@ -6765,24 +6862,24 @@
         <v>138</v>
       </c>
       <c r="E429" t="s">
+        <v>272</v>
+      </c>
+      <c r="F429" t="s">
+        <v>460</v>
+      </c>
+      <c r="G429" t="s">
         <v>274</v>
-      </c>
-      <c r="F429" t="s">
-        <v>462</v>
-      </c>
-      <c r="G429" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F430" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G430" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
@@ -6803,13 +6900,13 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B434" t="s">
         <v>139</v>
       </c>
       <c r="C434" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,10 +6922,10 @@
         <v>205</v>
       </c>
       <c r="F436" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G436" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -6841,7 +6938,7 @@
         <v>139</v>
       </c>
       <c r="C438" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -6854,7 +6951,7 @@
         <v>225</v>
       </c>
       <c r="G440" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -6862,13 +6959,13 @@
         <v>138</v>
       </c>
       <c r="E441" t="s">
+        <v>267</v>
+      </c>
+      <c r="F441" t="s">
+        <v>388</v>
+      </c>
+      <c r="G441" t="s">
         <v>269</v>
-      </c>
-      <c r="F441" t="s">
-        <v>390</v>
-      </c>
-      <c r="G441" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -6876,24 +6973,24 @@
         <v>138</v>
       </c>
       <c r="E442" t="s">
+        <v>272</v>
+      </c>
+      <c r="F442" t="s">
+        <v>390</v>
+      </c>
+      <c r="G442" t="s">
         <v>274</v>
-      </c>
-      <c r="F442" t="s">
-        <v>392</v>
-      </c>
-      <c r="G442" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F443" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G443" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -6903,12 +7000,12 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -6918,7 +7015,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -6931,13 +7028,13 @@
         <v>138</v>
       </c>
       <c r="E450" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F450" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G450" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -6945,7 +7042,7 @@
         <v>139</v>
       </c>
       <c r="C451" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -6953,13 +7050,13 @@
         <v>138</v>
       </c>
       <c r="E452" t="s">
+        <v>267</v>
+      </c>
+      <c r="F452" t="s">
+        <v>388</v>
+      </c>
+      <c r="G452" t="s">
         <v>269</v>
-      </c>
-      <c r="F452" t="s">
-        <v>390</v>
-      </c>
-      <c r="G452" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -6967,24 +7064,24 @@
         <v>138</v>
       </c>
       <c r="E453" t="s">
+        <v>272</v>
+      </c>
+      <c r="F453" t="s">
+        <v>390</v>
+      </c>
+      <c r="G453" t="s">
         <v>274</v>
-      </c>
-      <c r="F453" t="s">
-        <v>392</v>
-      </c>
-      <c r="G453" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F454" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G454" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -7005,13 +7102,13 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B458" t="s">
         <v>139</v>
       </c>
       <c r="C458" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -7027,10 +7124,10 @@
         <v>205</v>
       </c>
       <c r="F460" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G460" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -7043,7 +7140,7 @@
         <v>139</v>
       </c>
       <c r="C462" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -7056,7 +7153,7 @@
         <v>225</v>
       </c>
       <c r="G464" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.25">
@@ -7064,13 +7161,13 @@
         <v>138</v>
       </c>
       <c r="E465" t="s">
+        <v>267</v>
+      </c>
+      <c r="F465" t="s">
+        <v>464</v>
+      </c>
+      <c r="G465" t="s">
         <v>269</v>
-      </c>
-      <c r="F465" t="s">
-        <v>466</v>
-      </c>
-      <c r="G465" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.25">
@@ -7078,24 +7175,24 @@
         <v>138</v>
       </c>
       <c r="E466" t="s">
+        <v>272</v>
+      </c>
+      <c r="F466" t="s">
+        <v>466</v>
+      </c>
+      <c r="G466" t="s">
         <v>274</v>
-      </c>
-      <c r="F466" t="s">
-        <v>468</v>
-      </c>
-      <c r="G466" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F467" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G467" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="468" spans="2:7" x14ac:dyDescent="0.25">
@@ -7105,12 +7202,12 @@
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.25">
@@ -7120,7 +7217,7 @@
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.25">
@@ -7133,13 +7230,13 @@
         <v>138</v>
       </c>
       <c r="E474" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F474" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G474" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="475" spans="2:7" x14ac:dyDescent="0.25">
@@ -7147,7 +7244,7 @@
         <v>139</v>
       </c>
       <c r="C475" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="476" spans="2:7" x14ac:dyDescent="0.25">
@@ -7155,13 +7252,13 @@
         <v>138</v>
       </c>
       <c r="E476" t="s">
+        <v>267</v>
+      </c>
+      <c r="F476" t="s">
+        <v>464</v>
+      </c>
+      <c r="G476" t="s">
         <v>269</v>
-      </c>
-      <c r="F476" t="s">
-        <v>466</v>
-      </c>
-      <c r="G476" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.25">
@@ -7169,24 +7266,24 @@
         <v>138</v>
       </c>
       <c r="E477" t="s">
+        <v>272</v>
+      </c>
+      <c r="F477" t="s">
+        <v>466</v>
+      </c>
+      <c r="G477" t="s">
         <v>274</v>
-      </c>
-      <c r="F477" t="s">
-        <v>468</v>
-      </c>
-      <c r="G477" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="478" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D478" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F478" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G478" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.25">
@@ -7216,7 +7313,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A68" sqref="A68:D68"/>
     </sheetView>
   </sheetViews>
@@ -8228,7 +8325,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B68" t="str">
         <f>"1"</f>
@@ -8243,72 +8340,72 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B70" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B71" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B72" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B73" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B74" t="str">
         <f>"3"</f>
@@ -8330,11 +8427,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8404,6 +8501,32 @@
         <v>220</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8414,8 +8537,8 @@
   <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,7 +8575,7 @@
         <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -8474,7 +8597,7 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -8482,7 +8605,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>138</v>
@@ -8493,7 +8616,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -8526,7 +8649,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>138</v>
@@ -8537,7 +8660,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
@@ -8551,7 +8674,7 @@
         <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -8595,7 +8718,7 @@
         <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -8603,7 +8726,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>236</v>
@@ -8650,7 +8773,7 @@
         <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -8735,7 +8858,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s">
         <v>138</v>
@@ -8746,7 +8869,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
         <v>138</v>
@@ -8757,10 +8880,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -8768,7 +8891,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s">
         <v>138</v>
@@ -8779,7 +8902,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
         <v>138</v>
@@ -8790,7 +8913,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
         <v>138</v>
@@ -8801,10 +8924,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -8812,7 +8935,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
@@ -8823,7 +8946,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
         <v>138</v>
@@ -8834,7 +8957,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s">
         <v>138</v>
@@ -8845,10 +8968,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -8856,7 +8979,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
         <v>138</v>
@@ -8867,7 +8990,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s">
         <v>138</v>
@@ -8878,7 +9001,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s">
         <v>138</v>
@@ -8889,10 +9012,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -8900,7 +9023,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B44" t="s">
         <v>138</v>
@@ -8911,7 +9034,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s">
         <v>138</v>
@@ -8922,7 +9045,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s">
         <v>138</v>
@@ -8933,10 +9056,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -8944,7 +9067,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
@@ -8955,7 +9078,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s">
         <v>138</v>
@@ -8966,7 +9089,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
@@ -8977,10 +9100,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -8988,7 +9111,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s">
         <v>138</v>
@@ -8999,7 +9122,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s">
         <v>138</v>
@@ -9010,7 +9133,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s">
         <v>138</v>
@@ -9021,10 +9144,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -9032,7 +9155,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s">
         <v>138</v>
@@ -9043,7 +9166,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
@@ -9054,7 +9177,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -9065,10 +9188,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -9076,7 +9199,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s">
         <v>138</v>
@@ -9087,7 +9210,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s">
         <v>138</v>
@@ -9098,7 +9221,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B62" t="s">
         <v>138</v>
@@ -9109,10 +9232,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B63" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -9120,7 +9243,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s">
         <v>138</v>
@@ -9131,7 +9254,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s">
         <v>138</v>
@@ -9142,7 +9265,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
         <v>138</v>
@@ -9153,10 +9276,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -9164,7 +9287,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s">
         <v>138</v>
@@ -9175,7 +9298,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
@@ -9186,7 +9309,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B70" t="s">
         <v>138</v>
@@ -9197,10 +9320,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B71" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -9208,7 +9331,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
         <v>138</v>
@@ -9219,7 +9342,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
@@ -9230,7 +9353,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
@@ -9241,10 +9364,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -9252,7 +9375,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
@@ -9263,7 +9386,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B77" t="s">
         <v>138</v>
@@ -9274,7 +9397,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
@@ -9285,10 +9408,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -9296,7 +9419,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s">
         <v>138</v>
@@ -9307,7 +9430,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
@@ -9318,7 +9441,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
@@ -9329,10 +9452,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B83" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -9340,7 +9463,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
@@ -9351,7 +9474,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B85" t="s">
         <v>138</v>
@@ -9362,7 +9485,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s">
         <v>138</v>
@@ -9373,10 +9496,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -9384,7 +9507,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s">
         <v>138</v>
@@ -9395,7 +9518,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B89" t="s">
         <v>138</v>
@@ -9406,7 +9529,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B90" t="s">
         <v>138</v>
@@ -9417,10 +9540,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B91" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -9428,7 +9551,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
@@ -9439,7 +9562,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s">
         <v>138</v>
@@ -9450,7 +9573,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s">
         <v>138</v>
@@ -9461,10 +9584,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B95" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -9472,7 +9595,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s">
         <v>138</v>
@@ -9483,7 +9606,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B97" t="s">
         <v>138</v>
@@ -9494,7 +9617,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B98" t="s">
         <v>138</v>
@@ -9505,10 +9628,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B99" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -9516,7 +9639,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B100" t="s">
         <v>138</v>
@@ -9527,7 +9650,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B101" t="s">
         <v>138</v>
@@ -9538,7 +9661,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B102" t="s">
         <v>138</v>
@@ -9549,10 +9672,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B103" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -9560,7 +9683,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B104" t="s">
         <v>138</v>
@@ -9571,7 +9694,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B105" t="s">
         <v>138</v>
@@ -9582,7 +9705,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B106" t="s">
         <v>138</v>
@@ -9593,10 +9716,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B107" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -9604,7 +9727,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B108" t="s">
         <v>138</v>
@@ -9615,7 +9738,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B110" t="s">
         <v>138</v>
@@ -9626,7 +9749,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B111" t="s">
         <v>138</v>
@@ -9637,7 +9760,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B112" t="s">
         <v>138</v>
@@ -9648,7 +9771,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B113" t="s">
         <v>138</v>
@@ -9659,7 +9782,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
         <v>138</v>
@@ -9670,7 +9793,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B115" t="s">
         <v>138</v>
@@ -9681,7 +9804,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B116" t="s">
         <v>138</v>
@@ -9692,7 +9815,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
         <v>138</v>
@@ -9703,7 +9826,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B118" t="s">
         <v>138</v>
@@ -9714,7 +9837,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B119" t="s">
         <v>138</v>
@@ -9725,7 +9848,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B120" t="s">
         <v>138</v>
@@ -9736,7 +9859,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B121" t="s">
         <v>138</v>
@@ -9747,7 +9870,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B122" t="s">
         <v>138</v>
@@ -9758,7 +9881,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B123" t="s">
         <v>138</v>
@@ -9769,7 +9892,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
@@ -9780,7 +9903,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B125" t="s">
         <v>138</v>
@@ -9791,7 +9914,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s">
         <v>138</v>
@@ -9802,7 +9925,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B127" t="s">
         <v>138</v>
@@ -9813,7 +9936,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B128" t="s">
         <v>138</v>
@@ -9824,7 +9947,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B129" t="s">
         <v>138</v>
@@ -9860,7 +9983,7 @@
         <v>232</v>
       </c>
       <c r="B133" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>

--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE677ED1-CF17-4BC9-9708-BF8972706CB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00867E68-930C-4036-8AEA-18F4C8C0F0CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="533">
   <si>
     <t>setting_name</t>
   </si>
@@ -1626,6 +1626,51 @@
   </si>
   <si>
     <t>MIFGRAVIDA</t>
+  </si>
+  <si>
+    <t>display.hint.text.portuguese</t>
+  </si>
+  <si>
+    <t>Ultimo visita: {{data.LASTVISIT}}</t>
+  </si>
+  <si>
+    <t>Estado da cicatriz</t>
+  </si>
+  <si>
+    <t>A criança ainda está viva?</t>
+  </si>
+  <si>
+    <t>Data da assinatura</t>
+  </si>
+  <si>
+    <t>Tipo da assinatura</t>
+  </si>
+  <si>
+    <t>Assinatura</t>
+  </si>
+  <si>
+    <t>Impressão digital</t>
+  </si>
+  <si>
+    <t>Cartão da vacina</t>
+  </si>
+  <si>
+    <t>Cartão de gravidez</t>
+  </si>
+  <si>
+    <t>Informação correta</t>
+  </si>
+  <si>
+    <t>Alterar informações</t>
+  </si>
+  <si>
+    <t>Vacina anti-tetánica</t>
+  </si>
+  <si>
+    <t>Tem um formulário de consentimento foi produzido?</t>
+  </si>
+  <si>
+    <t>O formulário de consentimento é assinado?</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1841,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1844,15 +1889,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -2253,11 +2296,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,9 +2315,10 @@
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>142</v>
       </c>
@@ -2305,14 +2349,17 @@
       <c r="J1" s="20" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="31" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>507</v>
       </c>
@@ -2326,7 +2373,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>138</v>
       </c>
@@ -2343,17 +2390,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>138</v>
       </c>
@@ -2370,7 +2417,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -2378,7 +2425,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>507</v>
       </c>
@@ -2392,7 +2439,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>138</v>
       </c>
@@ -2409,7 +2456,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>139</v>
       </c>
@@ -2417,7 +2464,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>136</v>
       </c>
@@ -2431,23 +2478,23 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" t="s">
         <v>139</v>
@@ -2471,10 +2518,12 @@
       <c r="F18" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -2494,10 +2543,12 @@
       <c r="F20" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -2517,10 +2568,12 @@
       <c r="F22" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="16" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -2529,10 +2582,12 @@
       <c r="F23" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="16" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -2614,17 +2669,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>139</v>
       </c>
@@ -2632,12 +2687,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>138</v>
       </c>
@@ -2656,13 +2711,16 @@
       <c r="J37" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>139</v>
       </c>
@@ -2670,12 +2728,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>507</v>
       </c>
@@ -2689,7 +2747,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>138</v>
       </c>
@@ -2706,7 +2764,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>138</v>
       </c>
@@ -2723,12 +2781,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>139</v>
       </c>
@@ -2736,12 +2794,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>138</v>
       </c>
@@ -2751,12 +2809,14 @@
       <c r="F47" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>139</v>
       </c>
@@ -3043,10 +3103,12 @@
       <c r="D79" t="s">
         <v>225</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="16" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -3120,7 +3182,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
+      <c r="A90" s="30"/>
       <c r="B90" t="s">
         <v>139</v>
       </c>
@@ -3147,7 +3209,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="A94" s="30"/>
       <c r="B94" t="s">
         <v>140</v>
       </c>
@@ -3258,12 +3320,12 @@
       <c r="I1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>280</v>
       </c>
       <c r="B2" t="s">
@@ -3459,13 +3521,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="29" t="s">
         <v>292</v>
       </c>
       <c r="B26" t="s">
@@ -3661,13 +3723,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="29"/>
       <c r="B49" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="28" t="s">
         <v>295</v>
       </c>
       <c r="B50" t="s">
@@ -3863,13 +3925,13 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="28"/>
       <c r="B73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="29" t="s">
         <v>305</v>
       </c>
       <c r="B74" t="s">
@@ -4065,13 +4127,13 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
+      <c r="A97" s="29"/>
       <c r="B97" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="28" t="s">
         <v>306</v>
       </c>
       <c r="B98" t="s">
@@ -4267,13 +4329,13 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
+      <c r="A121" s="28"/>
       <c r="B121" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="29" t="s">
         <v>307</v>
       </c>
       <c r="B122" t="s">
@@ -4469,13 +4531,13 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="32"/>
+      <c r="A145" s="29"/>
       <c r="B145" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="28" t="s">
         <v>310</v>
       </c>
       <c r="B146" t="s">
@@ -4671,13 +4733,13 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="31"/>
+      <c r="A169" s="28"/>
       <c r="B169" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="32" t="s">
+      <c r="A170" s="29" t="s">
         <v>311</v>
       </c>
       <c r="B170" t="s">
@@ -4873,13 +4935,13 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="32"/>
+      <c r="A193" s="29"/>
       <c r="B193" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="31" t="s">
+      <c r="A194" s="28" t="s">
         <v>314</v>
       </c>
       <c r="B194" t="s">
@@ -5075,13 +5137,13 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="31"/>
+      <c r="A217" s="28"/>
       <c r="B217" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="29" t="s">
         <v>315</v>
       </c>
       <c r="B218" t="s">
@@ -5277,13 +5339,13 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="32"/>
+      <c r="A241" s="29"/>
       <c r="B241" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="31" t="s">
+      <c r="A242" s="28" t="s">
         <v>318</v>
       </c>
       <c r="B242" t="s">
@@ -5479,13 +5541,13 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="31"/>
+      <c r="A265" s="28"/>
       <c r="B265" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="32" t="s">
+      <c r="A266" s="29" t="s">
         <v>319</v>
       </c>
       <c r="B266" t="s">
@@ -5681,13 +5743,13 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="32"/>
+      <c r="A289" s="29"/>
       <c r="B289" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="31" t="s">
+      <c r="A290" s="28" t="s">
         <v>322</v>
       </c>
       <c r="B290" t="s">
@@ -5883,13 +5945,13 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="31"/>
+      <c r="A313" s="28"/>
       <c r="B313" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="32" t="s">
+      <c r="A314" s="29" t="s">
         <v>323</v>
       </c>
       <c r="B314" t="s">
@@ -6085,13 +6147,13 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="32"/>
+      <c r="A337" s="29"/>
       <c r="B337" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="31" t="s">
+      <c r="A338" s="28" t="s">
         <v>326</v>
       </c>
       <c r="B338" t="s">
@@ -6287,13 +6349,13 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="31"/>
+      <c r="A361" s="28"/>
       <c r="B361" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="32" t="s">
+      <c r="A362" s="29" t="s">
         <v>327</v>
       </c>
       <c r="B362" t="s">
@@ -6489,13 +6551,13 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="32"/>
+      <c r="A385" s="29"/>
       <c r="B385" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="31" t="s">
+      <c r="A386" s="28" t="s">
         <v>330</v>
       </c>
       <c r="B386" t="s">
@@ -6691,13 +6753,13 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="31"/>
+      <c r="A409" s="28"/>
       <c r="B409" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="32" t="s">
+      <c r="A410" s="29" t="s">
         <v>331</v>
       </c>
       <c r="B410" t="s">
@@ -6893,13 +6955,13 @@
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="32"/>
+      <c r="A433" s="29"/>
       <c r="B433" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="31" t="s">
+      <c r="A434" s="28" t="s">
         <v>334</v>
       </c>
       <c r="B434" t="s">
@@ -7095,13 +7157,13 @@
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="31"/>
+      <c r="A457" s="28"/>
       <c r="B457" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="32" t="s">
+      <c r="A458" s="29" t="s">
         <v>335</v>
       </c>
       <c r="B458" t="s">
@@ -7297,7 +7359,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="32"/>
+      <c r="A481" s="29"/>
       <c r="B481" t="s">
         <v>140</v>
       </c>
@@ -7313,8 +7375,8 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:D68"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7992,10 +8054,12 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="16" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8005,10 +8069,12 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="16" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -8018,10 +8084,10 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8346,10 +8412,12 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="16" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -8359,10 +8427,12 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -8372,10 +8442,12 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="16" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8385,10 +8457,12 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="16" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -8398,10 +8472,12 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="16" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -8411,10 +8487,12 @@
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:D33">
@@ -8429,7 +8507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>

--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00867E68-930C-4036-8AEA-18F4C8C0F0CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A4F95-D9A5-4270-9EA2-C2FBE8F05C02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="535">
   <si>
     <t>setting_name</t>
   </si>
@@ -1616,9 +1616,6 @@
     <t>data('CONSENTSIG') != '1' &amp;&amp; data('CONSENTSIG') != '5' &amp;&amp; data('ESTADOVIS') == '1'</t>
   </si>
   <si>
-    <t>Is the woman studying</t>
-  </si>
-  <si>
     <t xml:space="preserve">end screen </t>
   </si>
   <si>
@@ -1671,6 +1668,15 @@
   </si>
   <si>
     <t>O formulário de consentimento é assinado?</t>
+  </si>
+  <si>
+    <t>A mulher esta a estudar?</t>
+  </si>
+  <si>
+    <t>Is the woman currently attending school?</t>
+  </si>
+  <si>
+    <t>Qual classe finalicao?</t>
   </si>
 </sst>
 </file>
@@ -1755,18 +1761,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1841,17 +1841,16 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1871,7 +1870,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1884,17 +1883,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2195,23 +2194,23 @@
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2273,10 +2272,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2298,9 +2297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,43 +2317,43 @@
     <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="31" t="s">
-        <v>518</v>
+      <c r="K1" s="30" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -2380,7 +2379,7 @@
       <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>146</v>
       </c>
       <c r="G4" t="s">
@@ -2489,13 +2488,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16" t="s">
         <v>139</v>
       </c>
@@ -2515,14 +2514,14 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>246</v>
       </c>
       <c r="H18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2543,11 +2542,11 @@
       <c r="F20" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>247</v>
       </c>
       <c r="H20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2568,25 +2567,25 @@
       <c r="F22" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>523</v>
+      <c r="H22" s="15" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>507</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>522</v>
+      <c r="H23" s="15" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2605,13 +2604,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>231</v>
       </c>
       <c r="K37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -2809,11 +2808,11 @@
       <c r="F47" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>521</v>
+      <c r="H47" s="15" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -3034,10 +3033,12 @@
       <c r="F71" t="s">
         <v>261</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H71" s="2"/>
+      <c r="G71" t="s">
+        <v>533</v>
+      </c>
+      <c r="H71" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -3054,10 +3055,12 @@
       <c r="F73" t="s">
         <v>263</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" t="s">
         <v>264</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
@@ -3069,24 +3072,24 @@
       <c r="F74" t="s">
         <v>503</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
       <c r="B76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
+      <c r="A77" s="21"/>
       <c r="B77" t="s">
         <v>139</v>
       </c>
@@ -3103,11 +3106,11 @@
       <c r="D79" t="s">
         <v>225</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="H79" s="16" t="s">
-        <v>520</v>
+      <c r="H79" s="15" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3124,13 +3127,13 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" t="s">
         <v>14</v>
       </c>
@@ -3176,13 +3179,13 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
+      <c r="A90" s="29"/>
       <c r="B90" t="s">
         <v>139</v>
       </c>
@@ -3200,16 +3203,16 @@
         <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+      <c r="A94" s="29"/>
       <c r="B94" t="s">
         <v>140</v>
       </c>
@@ -3237,16 +3240,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>506</v>
       </c>
     </row>
@@ -3292,40 +3295,40 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>280</v>
       </c>
       <c r="B2" t="s">
@@ -3459,7 +3462,7 @@
       <c r="F18" t="s">
         <v>290</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -3521,13 +3524,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
       <c r="B25" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>292</v>
       </c>
       <c r="B26" t="s">
@@ -3661,7 +3664,7 @@
       <c r="F42" t="s">
         <v>303</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -3723,13 +3726,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>295</v>
       </c>
       <c r="B50" t="s">
@@ -3863,7 +3866,7 @@
       <c r="F66" t="s">
         <v>344</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="20" t="s">
         <v>499</v>
       </c>
     </row>
@@ -3925,13 +3928,13 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
+      <c r="A73" s="27"/>
       <c r="B73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="28" t="s">
         <v>305</v>
       </c>
       <c r="B74" t="s">
@@ -4065,7 +4068,7 @@
       <c r="F90" t="s">
         <v>414</v>
       </c>
-      <c r="G90" s="21" t="s">
+      <c r="G90" s="20" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4127,13 +4130,13 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
+      <c r="A97" s="28"/>
       <c r="B97" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="27" t="s">
         <v>306</v>
       </c>
       <c r="B98" t="s">
@@ -4267,7 +4270,7 @@
       <c r="F114" t="s">
         <v>349</v>
       </c>
-      <c r="G114" s="21" t="s">
+      <c r="G114" s="20" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4329,13 +4332,13 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
+      <c r="A121" s="27"/>
       <c r="B121" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="28" t="s">
         <v>307</v>
       </c>
       <c r="B122" t="s">
@@ -4469,7 +4472,7 @@
       <c r="F138" t="s">
         <v>420</v>
       </c>
-      <c r="G138" s="21" t="s">
+      <c r="G138" s="20" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4531,13 +4534,13 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
+      <c r="A145" s="28"/>
       <c r="B145" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="27" t="s">
         <v>310</v>
       </c>
       <c r="B146" t="s">
@@ -4671,7 +4674,7 @@
       <c r="F162" t="s">
         <v>355</v>
       </c>
-      <c r="G162" s="21" t="s">
+      <c r="G162" s="20" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4733,13 +4736,13 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
+      <c r="A169" s="27"/>
       <c r="B169" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="29" t="s">
+      <c r="A170" s="28" t="s">
         <v>311</v>
       </c>
       <c r="B170" t="s">
@@ -4873,7 +4876,7 @@
       <c r="F186" t="s">
         <v>426</v>
       </c>
-      <c r="G186" s="21" t="s">
+      <c r="G186" s="20" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4935,13 +4938,13 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
+      <c r="A193" s="28"/>
       <c r="B193" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="28" t="s">
+      <c r="A194" s="27" t="s">
         <v>314</v>
       </c>
       <c r="B194" t="s">
@@ -5075,7 +5078,7 @@
       <c r="F210" t="s">
         <v>362</v>
       </c>
-      <c r="G210" s="21" t="s">
+      <c r="G210" s="20" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5137,13 +5140,13 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="28"/>
+      <c r="A217" s="27"/>
       <c r="B217" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="29" t="s">
+      <c r="A218" s="28" t="s">
         <v>315</v>
       </c>
       <c r="B218" t="s">
@@ -5277,7 +5280,7 @@
       <c r="F234" t="s">
         <v>433</v>
       </c>
-      <c r="G234" s="21" t="s">
+      <c r="G234" s="20" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5339,13 +5342,13 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="29"/>
+      <c r="A241" s="28"/>
       <c r="B241" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="28" t="s">
+      <c r="A242" s="27" t="s">
         <v>318</v>
       </c>
       <c r="B242" t="s">
@@ -5479,7 +5482,7 @@
       <c r="F258" t="s">
         <v>367</v>
       </c>
-      <c r="G258" s="21" t="s">
+      <c r="G258" s="20" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5541,13 +5544,13 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="28"/>
+      <c r="A265" s="27"/>
       <c r="B265" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="29" t="s">
+      <c r="A266" s="28" t="s">
         <v>319</v>
       </c>
       <c r="B266" t="s">
@@ -5681,7 +5684,7 @@
       <c r="F282" t="s">
         <v>439</v>
       </c>
-      <c r="G282" s="21" t="s">
+      <c r="G282" s="20" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5743,13 +5746,13 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="29"/>
+      <c r="A289" s="28"/>
       <c r="B289" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="28" t="s">
+      <c r="A290" s="27" t="s">
         <v>322</v>
       </c>
       <c r="B290" t="s">
@@ -5883,7 +5886,7 @@
       <c r="F306" t="s">
         <v>373</v>
       </c>
-      <c r="G306" s="21" t="s">
+      <c r="G306" s="20" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5945,13 +5948,13 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="28"/>
+      <c r="A313" s="27"/>
       <c r="B313" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="29" t="s">
+      <c r="A314" s="28" t="s">
         <v>323</v>
       </c>
       <c r="B314" t="s">
@@ -6085,7 +6088,7 @@
       <c r="F330" t="s">
         <v>449</v>
       </c>
-      <c r="G330" s="21" t="s">
+      <c r="G330" s="20" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6147,13 +6150,13 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="29"/>
+      <c r="A337" s="28"/>
       <c r="B337" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="28" t="s">
+      <c r="A338" s="27" t="s">
         <v>326</v>
       </c>
       <c r="B338" t="s">
@@ -6287,7 +6290,7 @@
       <c r="F354" t="s">
         <v>379</v>
       </c>
-      <c r="G354" s="21" t="s">
+      <c r="G354" s="20" t="s">
         <v>487</v>
       </c>
     </row>
@@ -6349,13 +6352,13 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="28"/>
+      <c r="A361" s="27"/>
       <c r="B361" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="29" t="s">
+      <c r="A362" s="28" t="s">
         <v>327</v>
       </c>
       <c r="B362" t="s">
@@ -6489,7 +6492,7 @@
       <c r="F378" t="s">
         <v>455</v>
       </c>
-      <c r="G378" s="21" t="s">
+      <c r="G378" s="20" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6551,13 +6554,13 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="29"/>
+      <c r="A385" s="28"/>
       <c r="B385" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="28" t="s">
+      <c r="A386" s="27" t="s">
         <v>330</v>
       </c>
       <c r="B386" t="s">
@@ -6691,7 +6694,7 @@
       <c r="F402" t="s">
         <v>385</v>
       </c>
-      <c r="G402" s="21" t="s">
+      <c r="G402" s="20" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6753,13 +6756,13 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="28"/>
+      <c r="A409" s="27"/>
       <c r="B409" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="29" t="s">
+      <c r="A410" s="28" t="s">
         <v>331</v>
       </c>
       <c r="B410" t="s">
@@ -6893,7 +6896,7 @@
       <c r="F426" t="s">
         <v>461</v>
       </c>
-      <c r="G426" s="21" t="s">
+      <c r="G426" s="20" t="s">
         <v>484</v>
       </c>
     </row>
@@ -6955,13 +6958,13 @@
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="29"/>
+      <c r="A433" s="28"/>
       <c r="B433" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="28" t="s">
+      <c r="A434" s="27" t="s">
         <v>334</v>
       </c>
       <c r="B434" t="s">
@@ -7095,7 +7098,7 @@
       <c r="F450" t="s">
         <v>391</v>
       </c>
-      <c r="G450" s="21" t="s">
+      <c r="G450" s="20" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7157,13 +7160,13 @@
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="28"/>
+      <c r="A457" s="27"/>
       <c r="B457" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="29" t="s">
+      <c r="A458" s="28" t="s">
         <v>335</v>
       </c>
       <c r="B458" t="s">
@@ -7297,7 +7300,7 @@
       <c r="F474" t="s">
         <v>467</v>
       </c>
-      <c r="G474" s="21" t="s">
+      <c r="G474" s="20" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7359,7 +7362,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="29"/>
+      <c r="A481" s="28"/>
       <c r="B481" t="s">
         <v>140</v>
       </c>
@@ -7388,16 +7391,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8054,11 +8057,11 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>524</v>
+      <c r="D45" s="15" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8069,11 +8072,11 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>525</v>
+      <c r="D46" s="15" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8084,10 +8087,10 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8114,7 +8117,7 @@
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D49" t="s">
@@ -8239,7 +8242,7 @@
       <c r="D57" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -8254,22 +8257,22 @@
       <c r="D58" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="12"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -8284,7 +8287,7 @@
       <c r="D60" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="12"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -8299,7 +8302,7 @@
       <c r="D61" t="s">
         <v>109</v>
       </c>
-      <c r="E61" s="13"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -8314,7 +8317,7 @@
       <c r="D62" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="11"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -8343,7 +8346,7 @@
       <c r="D64" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8358,7 +8361,7 @@
       <c r="D65" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -8373,7 +8376,7 @@
       <c r="D66" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -8412,11 +8415,11 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>530</v>
+      <c r="D69" s="15" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -8427,11 +8430,11 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8442,11 +8445,11 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>527</v>
+      <c r="D71" s="15" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -8457,11 +8460,11 @@
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>528</v>
+      <c r="D72" s="15" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8472,11 +8475,11 @@
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>529</v>
+      <c r="D73" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -8524,32 +8527,32 @@
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8575,22 +8578,22 @@
       <c r="G2" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
         <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E3" t="s">
         <v>218</v>
@@ -8601,7 +8604,7 @@
       <c r="G3" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8626,14 +8629,14 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8715,7 +8718,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B9" t="s">
@@ -8748,7 +8751,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>248</v>
       </c>
       <c r="B12" t="s">
@@ -8759,7 +8762,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>239</v>
       </c>
       <c r="B13" t="s">
@@ -10038,7 +10041,7 @@
       <c r="A131" t="s">
         <v>234</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="22" t="s">
         <v>236</v>
       </c>
       <c r="C131" t="b">

--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CC61F2-08FE-4548-ADE0-B8946B2E7D6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E7C9E-8BA2-47AF-B90C-8009A9C7996B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="586">
   <si>
     <t>setting_name</t>
   </si>
@@ -692,9 +692,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>{ID: data('ID')}</t>
   </si>
   <si>
     <t>MIFVISIT_CORE</t>
@@ -1852,6 +1849,27 @@
   </si>
   <si>
     <t>display.hint.text.english</t>
+  </si>
+  <si>
+    <t>Pregnancies</t>
+  </si>
+  <si>
+    <t>Gravidas</t>
+  </si>
+  <si>
+    <t>data('LASTVISIT') != null</t>
+  </si>
+  <si>
+    <t>{ID: data('ID'), CICADATA: data('CONT')}</t>
+  </si>
+  <si>
+    <t>{ID: data('ID'), PREGDIA: data('CONT'), ESTADOVIS: data('ESTADOVIS'), VISITID: data('_id')}</t>
+  </si>
+  <si>
+    <t>data('GR') == '1'  || data('GRCORE') == '1'</t>
+  </si>
+  <si>
+    <t>GRCORE</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1997,6 +2015,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2022,7 +2046,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2077,6 +2101,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -2384,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -2401,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
         <v>222</v>
-      </c>
-      <c r="D5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,7 +2469,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -2463,7 +2488,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>144</v>
@@ -2477,11 +2502,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -2528,10 +2553,10 @@
         <v>136</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2542,7 +2567,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -2589,7 +2614,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
         <v>145</v>
@@ -2603,12 +2628,12 @@
         <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F9" t="s">
         <v>147</v>
@@ -2642,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2681,7 +2706,7 @@
         <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,7 +2715,7 @@
         <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2706,13 +2731,13 @@
         <v>27</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2720,7 +2745,7 @@
         <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,13 +2756,13 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2745,7 +2770,7 @@
         <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2753,30 +2778,30 @@
         <v>133</v>
       </c>
       <c r="E23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F23" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="H23" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2845,12 +2870,12 @@
         <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F33" t="s">
         <v>159</v>
@@ -2879,180 +2904,183 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
         <v>27</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>162</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>163</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>164</v>
       </c>
-      <c r="J38" t="s">
-        <v>225</v>
-      </c>
-      <c r="K38" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>13</v>
+      <c r="J39" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>500</v>
-      </c>
-      <c r="F42" t="s">
-        <v>189</v>
-      </c>
-      <c r="G42" t="s">
-        <v>190</v>
-      </c>
-      <c r="H42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" t="s">
-        <v>250</v>
-      </c>
-      <c r="G43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H43" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" t="s">
+        <v>499</v>
+      </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
         <v>90</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F46" t="s">
         <v>166</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G46" t="s">
         <v>167</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H46" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>512</v>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>500</v>
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
       </c>
       <c r="F50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>499</v>
+      </c>
+      <c r="F52" t="s">
         <v>196</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>197</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H52" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
         <v>61</v>
       </c>
-      <c r="F51" t="s">
-        <v>249</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F53" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53" t="s">
         <v>251</v>
-      </c>
-      <c r="H51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -3062,72 +3090,72 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" t="s">
-        <v>505</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" t="s">
-        <v>170</v>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>13</v>
+      <c r="D62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3137,49 +3165,34 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" t="s">
         <v>27</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F67" t="s">
         <v>176</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G67" t="s">
         <v>177</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H67" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" t="s">
-        <v>178</v>
-      </c>
-      <c r="G66" t="s">
-        <v>179</v>
-      </c>
-      <c r="H66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3187,230 +3200,266 @@
         <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H68" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>13</v>
+      <c r="D70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" t="s">
+        <v>181</v>
+      </c>
+      <c r="G70" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" t="s">
-        <v>255</v>
-      </c>
-      <c r="G72" t="s">
-        <v>525</v>
-      </c>
-      <c r="H72" t="s">
-        <v>524</v>
+      <c r="B72" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" t="s">
+        <v>524</v>
+      </c>
+      <c r="H74" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" t="s">
+        <v>256</v>
+      </c>
+      <c r="G76" t="s">
+        <v>528</v>
+      </c>
+      <c r="H76" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" t="s">
+        <v>494</v>
+      </c>
+      <c r="F77" t="s">
+        <v>495</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+      <c r="G82" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H82" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" t="s">
+        <v>199</v>
+      </c>
+      <c r="F87" t="s">
         <v>257</v>
       </c>
-      <c r="G74" t="s">
-        <v>529</v>
-      </c>
-      <c r="H74" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>188</v>
-      </c>
-      <c r="E75" t="s">
-        <v>495</v>
-      </c>
-      <c r="F75" t="s">
-        <v>496</v>
-      </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>135</v>
-      </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>219</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>202</v>
-      </c>
-      <c r="E81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" t="s">
-        <v>258</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="G87" t="s">
         <v>200</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H87" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
+      <c r="B92" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="31"/>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="29"/>
+      <c r="B94" t="s">
         <v>134</v>
       </c>
-      <c r="C91" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="C94" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>219</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="H96" s="32" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>202</v>
       </c>
-      <c r="E93" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="E97" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="29"/>
+      <c r="B99" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3438,30 +3487,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" t="s">
         <v>500</v>
-      </c>
-      <c r="B2" t="s">
-        <v>501</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -3524,13 +3573,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
         <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3546,13 +3595,13 @@
         <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H4" t="s">
         <v>530</v>
-      </c>
-      <c r="H4" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3565,7 +3614,7 @@
         <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3578,10 +3627,10 @@
         <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3589,16 +3638,16 @@
         <v>133</v>
       </c>
       <c r="E9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" t="s">
         <v>260</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>261</v>
       </c>
-      <c r="G9" t="s">
-        <v>262</v>
-      </c>
       <c r="H9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3606,30 +3655,30 @@
         <v>133</v>
       </c>
       <c r="E10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" t="s">
         <v>265</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>266</v>
       </c>
-      <c r="G10" t="s">
-        <v>267</v>
-      </c>
       <c r="H10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" t="s">
         <v>263</v>
       </c>
-      <c r="G11" t="s">
-        <v>264</v>
-      </c>
       <c r="H11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3639,12 +3688,12 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3654,7 +3703,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3667,16 +3716,16 @@
         <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3684,7 +3733,7 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3692,16 +3741,16 @@
         <v>133</v>
       </c>
       <c r="E20" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" t="s">
         <v>260</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>261</v>
       </c>
-      <c r="G20" t="s">
-        <v>262</v>
-      </c>
       <c r="H20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3709,30 +3758,30 @@
         <v>133</v>
       </c>
       <c r="E21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" t="s">
         <v>265</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>266</v>
       </c>
-      <c r="G21" t="s">
-        <v>267</v>
-      </c>
       <c r="H21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" t="s">
         <v>263</v>
       </c>
-      <c r="G22" t="s">
-        <v>264</v>
-      </c>
       <c r="H22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3753,13 +3802,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
         <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3775,13 +3824,13 @@
         <v>199</v>
       </c>
       <c r="F28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3794,7 +3843,7 @@
         <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3807,10 +3856,10 @@
         <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -3818,16 +3867,16 @@
         <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -3835,30 +3884,30 @@
         <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -3868,12 +3917,12 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -3883,7 +3932,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -3896,16 +3945,16 @@
         <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -3913,7 +3962,7 @@
         <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -3921,16 +3970,16 @@
         <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -3938,30 +3987,30 @@
         <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -3982,13 +4031,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4004,13 +4053,13 @@
         <v>199</v>
       </c>
       <c r="F52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H52" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4023,7 +4072,7 @@
         <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4036,10 +4085,10 @@
         <v>219</v>
       </c>
       <c r="G56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4047,16 +4096,16 @@
         <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H57" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4064,30 +4113,30 @@
         <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,12 +4146,12 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,7 +4161,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4125,16 +4174,16 @@
         <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4142,7 +4191,7 @@
         <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4150,16 +4199,16 @@
         <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H68" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4167,30 +4216,30 @@
         <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H69" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4211,13 +4260,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B74" t="s">
         <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4233,13 +4282,13 @@
         <v>199</v>
       </c>
       <c r="F76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4252,7 +4301,7 @@
         <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4265,10 +4314,10 @@
         <v>219</v>
       </c>
       <c r="G80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -4276,16 +4325,16 @@
         <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H81" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -4293,30 +4342,30 @@
         <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H82" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H83" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -4326,12 +4375,12 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -4341,7 +4390,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -4354,16 +4403,16 @@
         <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -4371,7 +4420,7 @@
         <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -4379,16 +4428,16 @@
         <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H92" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -4396,30 +4445,30 @@
         <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F93" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H93" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -4440,13 +4489,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B98" t="s">
         <v>134</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4462,13 +4511,13 @@
         <v>199</v>
       </c>
       <c r="F100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H100" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4481,7 +4530,7 @@
         <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4494,10 +4543,10 @@
         <v>219</v>
       </c>
       <c r="G104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H104" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4505,16 +4554,16 @@
         <v>133</v>
       </c>
       <c r="E105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H105" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,30 +4571,30 @@
         <v>133</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G106" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H106" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F107" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H107" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4555,12 +4604,12 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4570,7 +4619,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4583,16 +4632,16 @@
         <v>133</v>
       </c>
       <c r="E114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4600,7 +4649,7 @@
         <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4608,16 +4657,16 @@
         <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H116" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4625,30 +4674,30 @@
         <v>133</v>
       </c>
       <c r="E117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H117" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F118" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H118" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4669,13 +4718,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B122" t="s">
         <v>134</v>
       </c>
       <c r="C122" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4691,13 +4740,13 @@
         <v>199</v>
       </c>
       <c r="F124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H124" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4710,7 +4759,7 @@
         <v>134</v>
       </c>
       <c r="C126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4723,10 +4772,10 @@
         <v>219</v>
       </c>
       <c r="G128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H128" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
@@ -4734,16 +4783,16 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F129" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H129" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
@@ -4751,30 +4800,30 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F130" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H130" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F131" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G131" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H131" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
@@ -4784,12 +4833,12 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
@@ -4799,7 +4848,7 @@
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -4812,16 +4861,16 @@
         <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F138" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
@@ -4829,7 +4878,7 @@
         <v>134</v>
       </c>
       <c r="C139" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
@@ -4837,16 +4886,16 @@
         <v>133</v>
       </c>
       <c r="E140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H140" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
@@ -4854,30 +4903,30 @@
         <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G141" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H141" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F142" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H142" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -4898,13 +4947,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B146" t="s">
         <v>134</v>
       </c>
       <c r="C146" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4920,13 +4969,13 @@
         <v>199</v>
       </c>
       <c r="F148" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G148" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H148" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4939,7 +4988,7 @@
         <v>134</v>
       </c>
       <c r="C150" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4952,10 +5001,10 @@
         <v>219</v>
       </c>
       <c r="G152" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H152" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4963,16 +5012,16 @@
         <v>133</v>
       </c>
       <c r="E153" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F153" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H153" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4980,30 +5029,30 @@
         <v>133</v>
       </c>
       <c r="E154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H154" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F155" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H155" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5013,12 +5062,12 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5028,7 +5077,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5041,16 +5090,16 @@
         <v>133</v>
       </c>
       <c r="E162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F162" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H162" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5058,7 +5107,7 @@
         <v>134</v>
       </c>
       <c r="C163" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,16 +5115,16 @@
         <v>133</v>
       </c>
       <c r="E164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F164" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G164" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H164" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5083,30 +5132,30 @@
         <v>133</v>
       </c>
       <c r="E165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F165" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H165" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F166" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G166" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H166" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5127,13 +5176,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B170" t="s">
         <v>134</v>
       </c>
       <c r="C170" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5149,13 +5198,13 @@
         <v>199</v>
       </c>
       <c r="F172" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G172" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H172" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5168,7 +5217,7 @@
         <v>134</v>
       </c>
       <c r="C174" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5181,10 +5230,10 @@
         <v>219</v>
       </c>
       <c r="G176" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H176" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
@@ -5192,16 +5241,16 @@
         <v>133</v>
       </c>
       <c r="E177" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F177" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G177" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H177" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
@@ -5209,30 +5258,30 @@
         <v>133</v>
       </c>
       <c r="E178" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F178" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G178" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H178" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F179" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G179" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H179" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
@@ -5242,12 +5291,12 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
@@ -5257,7 +5306,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
@@ -5270,16 +5319,16 @@
         <v>133</v>
       </c>
       <c r="E186" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F186" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H186" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
@@ -5287,7 +5336,7 @@
         <v>134</v>
       </c>
       <c r="C187" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
@@ -5295,16 +5344,16 @@
         <v>133</v>
       </c>
       <c r="E188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F188" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G188" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H188" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -5312,30 +5361,30 @@
         <v>133</v>
       </c>
       <c r="E189" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F189" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G189" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H189" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F190" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G190" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H190" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
@@ -5356,13 +5405,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B194" t="s">
         <v>134</v>
       </c>
       <c r="C194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -5378,13 +5427,13 @@
         <v>199</v>
       </c>
       <c r="F196" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G196" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H196" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,7 +5446,7 @@
         <v>134</v>
       </c>
       <c r="C198" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -5410,10 +5459,10 @@
         <v>219</v>
       </c>
       <c r="G200" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H200" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -5421,16 +5470,16 @@
         <v>133</v>
       </c>
       <c r="E201" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G201" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H201" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -5438,30 +5487,30 @@
         <v>133</v>
       </c>
       <c r="E202" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F202" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G202" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H202" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F203" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G203" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H203" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -5471,12 +5520,12 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -5486,7 +5535,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -5499,16 +5548,16 @@
         <v>133</v>
       </c>
       <c r="E210" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F210" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H210" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -5516,7 +5565,7 @@
         <v>134</v>
       </c>
       <c r="C211" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -5524,16 +5573,16 @@
         <v>133</v>
       </c>
       <c r="E212" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G212" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H212" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -5541,30 +5590,30 @@
         <v>133</v>
       </c>
       <c r="E213" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F213" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G213" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H213" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F214" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G214" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H214" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -5585,13 +5634,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B218" t="s">
         <v>134</v>
       </c>
       <c r="C218" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -5607,13 +5656,13 @@
         <v>199</v>
       </c>
       <c r="F220" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G220" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H220" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -5626,7 +5675,7 @@
         <v>134</v>
       </c>
       <c r="C222" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -5639,10 +5688,10 @@
         <v>219</v>
       </c>
       <c r="G224" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H224" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
@@ -5650,16 +5699,16 @@
         <v>133</v>
       </c>
       <c r="E225" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G225" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H225" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
@@ -5667,30 +5716,30 @@
         <v>133</v>
       </c>
       <c r="E226" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F226" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G226" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H226" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G227" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H227" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
@@ -5700,12 +5749,12 @@
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
@@ -5715,7 +5764,7 @@
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
@@ -5728,16 +5777,16 @@
         <v>133</v>
       </c>
       <c r="E234" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F234" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G234" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H234" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
@@ -5745,7 +5794,7 @@
         <v>134</v>
       </c>
       <c r="C235" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
@@ -5753,16 +5802,16 @@
         <v>133</v>
       </c>
       <c r="E236" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F236" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G236" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H236" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
@@ -5770,30 +5819,30 @@
         <v>133</v>
       </c>
       <c r="E237" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F237" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H237" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F238" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G238" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H238" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
@@ -5814,13 +5863,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B242" t="s">
         <v>134</v>
       </c>
       <c r="C242" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -5836,13 +5885,13 @@
         <v>199</v>
       </c>
       <c r="F244" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G244" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H244" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -5855,7 +5904,7 @@
         <v>134</v>
       </c>
       <c r="C246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -5868,10 +5917,10 @@
         <v>219</v>
       </c>
       <c r="G248" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H248" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -5879,16 +5928,16 @@
         <v>133</v>
       </c>
       <c r="E249" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F249" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H249" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -5896,30 +5945,30 @@
         <v>133</v>
       </c>
       <c r="E250" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F250" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G250" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H250" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F251" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H251" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -5929,12 +5978,12 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -5944,7 +5993,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -5957,16 +6006,16 @@
         <v>133</v>
       </c>
       <c r="E258" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F258" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G258" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H258" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -5974,7 +6023,7 @@
         <v>134</v>
       </c>
       <c r="C259" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -5982,16 +6031,16 @@
         <v>133</v>
       </c>
       <c r="E260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F260" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H260" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -5999,30 +6048,30 @@
         <v>133</v>
       </c>
       <c r="E261" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G261" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H261" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H262" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -6043,13 +6092,13 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B266" t="s">
         <v>134</v>
       </c>
       <c r="C266" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -6065,13 +6114,13 @@
         <v>199</v>
       </c>
       <c r="F268" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H268" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -6084,7 +6133,7 @@
         <v>134</v>
       </c>
       <c r="C270" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -6097,10 +6146,10 @@
         <v>219</v>
       </c>
       <c r="G272" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H272" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
@@ -6108,16 +6157,16 @@
         <v>133</v>
       </c>
       <c r="E273" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F273" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G273" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H273" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
@@ -6125,30 +6174,30 @@
         <v>133</v>
       </c>
       <c r="E274" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F274" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G274" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H274" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F275" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G275" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H275" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
@@ -6158,12 +6207,12 @@
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
@@ -6173,7 +6222,7 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
@@ -6186,16 +6235,16 @@
         <v>133</v>
       </c>
       <c r="E282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F282" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G282" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H282" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
@@ -6203,7 +6252,7 @@
         <v>134</v>
       </c>
       <c r="C283" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
@@ -6211,16 +6260,16 @@
         <v>133</v>
       </c>
       <c r="E284" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F284" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G284" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H284" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
@@ -6228,30 +6277,30 @@
         <v>133</v>
       </c>
       <c r="E285" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F285" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G285" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H285" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F286" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G286" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H286" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
@@ -6272,13 +6321,13 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B290" t="s">
         <v>134</v>
       </c>
       <c r="C290" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -6294,13 +6343,13 @@
         <v>199</v>
       </c>
       <c r="F292" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H292" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -6313,7 +6362,7 @@
         <v>134</v>
       </c>
       <c r="C294" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -6326,10 +6375,10 @@
         <v>219</v>
       </c>
       <c r="G296" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H296" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -6337,16 +6386,16 @@
         <v>133</v>
       </c>
       <c r="E297" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F297" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G297" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H297" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -6354,30 +6403,30 @@
         <v>133</v>
       </c>
       <c r="E298" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F298" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G298" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H298" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F299" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G299" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H299" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -6387,12 +6436,12 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -6402,7 +6451,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -6415,16 +6464,16 @@
         <v>133</v>
       </c>
       <c r="E306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F306" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G306" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H306" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -6432,7 +6481,7 @@
         <v>134</v>
       </c>
       <c r="C307" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -6440,16 +6489,16 @@
         <v>133</v>
       </c>
       <c r="E308" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F308" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G308" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H308" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -6457,30 +6506,30 @@
         <v>133</v>
       </c>
       <c r="E309" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F309" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G309" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H309" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F310" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G310" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H310" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -6501,13 +6550,13 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B314" t="s">
         <v>134</v>
       </c>
       <c r="C314" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -6523,13 +6572,13 @@
         <v>199</v>
       </c>
       <c r="F316" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G316" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H316" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -6542,7 +6591,7 @@
         <v>134</v>
       </c>
       <c r="C318" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -6555,10 +6604,10 @@
         <v>219</v>
       </c>
       <c r="G320" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H320" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
@@ -6566,16 +6615,16 @@
         <v>133</v>
       </c>
       <c r="E321" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F321" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G321" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H321" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
@@ -6583,30 +6632,30 @@
         <v>133</v>
       </c>
       <c r="E322" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F322" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G322" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H322" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F323" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G323" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H323" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
@@ -6616,12 +6665,12 @@
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
@@ -6631,7 +6680,7 @@
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
@@ -6644,16 +6693,16 @@
         <v>133</v>
       </c>
       <c r="E330" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F330" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G330" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H330" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
@@ -6661,7 +6710,7 @@
         <v>134</v>
       </c>
       <c r="C331" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
@@ -6669,16 +6718,16 @@
         <v>133</v>
       </c>
       <c r="E332" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F332" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G332" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H332" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
@@ -6686,30 +6735,30 @@
         <v>133</v>
       </c>
       <c r="E333" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F333" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G333" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H333" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F334" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G334" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H334" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
@@ -6730,13 +6779,13 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B338" t="s">
         <v>134</v>
       </c>
       <c r="C338" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -6752,13 +6801,13 @@
         <v>199</v>
       </c>
       <c r="F340" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G340" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H340" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -6771,7 +6820,7 @@
         <v>134</v>
       </c>
       <c r="C342" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -6784,10 +6833,10 @@
         <v>219</v>
       </c>
       <c r="G344" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H344" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -6795,16 +6844,16 @@
         <v>133</v>
       </c>
       <c r="E345" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F345" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G345" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H345" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
@@ -6812,30 +6861,30 @@
         <v>133</v>
       </c>
       <c r="E346" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F346" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G346" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H346" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F347" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G347" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H347" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -6845,12 +6894,12 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -6860,7 +6909,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -6873,16 +6922,16 @@
         <v>133</v>
       </c>
       <c r="E354" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F354" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G354" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H354" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -6890,7 +6939,7 @@
         <v>134</v>
       </c>
       <c r="C355" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -6898,16 +6947,16 @@
         <v>133</v>
       </c>
       <c r="E356" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F356" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G356" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H356" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -6915,30 +6964,30 @@
         <v>133</v>
       </c>
       <c r="E357" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F357" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G357" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H357" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D358" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F358" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G358" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H358" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -6959,13 +7008,13 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B362" t="s">
         <v>134</v>
       </c>
       <c r="C362" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -6981,13 +7030,13 @@
         <v>199</v>
       </c>
       <c r="F364" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G364" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H364" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -7000,7 +7049,7 @@
         <v>134</v>
       </c>
       <c r="C366" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -7013,10 +7062,10 @@
         <v>219</v>
       </c>
       <c r="G368" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H368" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.25">
@@ -7024,16 +7073,16 @@
         <v>133</v>
       </c>
       <c r="E369" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F369" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G369" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H369" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
@@ -7041,30 +7090,30 @@
         <v>133</v>
       </c>
       <c r="E370" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F370" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G370" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H370" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F371" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G371" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H371" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.25">
@@ -7074,12 +7123,12 @@
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.25">
@@ -7089,7 +7138,7 @@
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.25">
@@ -7102,16 +7151,16 @@
         <v>133</v>
       </c>
       <c r="E378" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F378" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G378" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H378" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.25">
@@ -7119,7 +7168,7 @@
         <v>134</v>
       </c>
       <c r="C379" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.25">
@@ -7127,16 +7176,16 @@
         <v>133</v>
       </c>
       <c r="E380" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F380" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G380" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H380" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.25">
@@ -7144,30 +7193,30 @@
         <v>133</v>
       </c>
       <c r="E381" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F381" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G381" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H381" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F382" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G382" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H382" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.25">
@@ -7188,13 +7237,13 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B386" t="s">
         <v>134</v>
       </c>
       <c r="C386" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -7210,13 +7259,13 @@
         <v>199</v>
       </c>
       <c r="F388" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G388" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H388" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -7229,7 +7278,7 @@
         <v>134</v>
       </c>
       <c r="C390" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -7242,10 +7291,10 @@
         <v>219</v>
       </c>
       <c r="G392" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H392" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -7253,16 +7302,16 @@
         <v>133</v>
       </c>
       <c r="E393" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F393" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G393" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H393" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -7270,30 +7319,30 @@
         <v>133</v>
       </c>
       <c r="E394" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F394" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G394" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H394" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F395" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G395" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H395" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -7303,12 +7352,12 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -7318,7 +7367,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -7331,16 +7380,16 @@
         <v>133</v>
       </c>
       <c r="E402" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F402" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G402" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H402" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -7348,7 +7397,7 @@
         <v>134</v>
       </c>
       <c r="C403" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -7356,16 +7405,16 @@
         <v>133</v>
       </c>
       <c r="E404" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F404" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G404" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H404" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -7373,30 +7422,30 @@
         <v>133</v>
       </c>
       <c r="E405" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F405" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G405" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H405" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F406" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G406" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H406" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -7417,13 +7466,13 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B410" t="s">
         <v>134</v>
       </c>
       <c r="C410" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -7439,13 +7488,13 @@
         <v>199</v>
       </c>
       <c r="F412" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G412" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H412" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -7458,7 +7507,7 @@
         <v>134</v>
       </c>
       <c r="C414" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -7471,10 +7520,10 @@
         <v>219</v>
       </c>
       <c r="G416" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
@@ -7482,16 +7531,16 @@
         <v>133</v>
       </c>
       <c r="E417" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F417" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G417" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H417" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
@@ -7499,30 +7548,30 @@
         <v>133</v>
       </c>
       <c r="E418" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F418" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G418" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H418" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F419" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G419" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H419" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
@@ -7532,12 +7581,12 @@
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
@@ -7547,7 +7596,7 @@
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
@@ -7560,16 +7609,16 @@
         <v>133</v>
       </c>
       <c r="E426" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F426" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G426" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H426" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
@@ -7577,7 +7626,7 @@
         <v>134</v>
       </c>
       <c r="C427" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
@@ -7585,16 +7634,16 @@
         <v>133</v>
       </c>
       <c r="E428" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F428" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G428" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H428" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
@@ -7602,30 +7651,30 @@
         <v>133</v>
       </c>
       <c r="E429" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F429" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G429" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H429" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F430" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G430" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H430" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.25">
@@ -7646,13 +7695,13 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B434" t="s">
         <v>134</v>
       </c>
       <c r="C434" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -7668,13 +7717,13 @@
         <v>199</v>
       </c>
       <c r="F436" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G436" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H436" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -7687,7 +7736,7 @@
         <v>134</v>
       </c>
       <c r="C438" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -7700,10 +7749,10 @@
         <v>219</v>
       </c>
       <c r="G440" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -7711,16 +7760,16 @@
         <v>133</v>
       </c>
       <c r="E441" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F441" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G441" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H441" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -7728,30 +7777,30 @@
         <v>133</v>
       </c>
       <c r="E442" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F442" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G442" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H442" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F443" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G443" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H443" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -7761,12 +7810,12 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -7776,7 +7825,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -7789,16 +7838,16 @@
         <v>133</v>
       </c>
       <c r="E450" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F450" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G450" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H450" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -7806,7 +7855,7 @@
         <v>134</v>
       </c>
       <c r="C451" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -7814,16 +7863,16 @@
         <v>133</v>
       </c>
       <c r="E452" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F452" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G452" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H452" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -7831,30 +7880,30 @@
         <v>133</v>
       </c>
       <c r="E453" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F453" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G453" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H453" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F454" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G454" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H454" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -7875,13 +7924,13 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B458" t="s">
         <v>134</v>
       </c>
       <c r="C458" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -7897,13 +7946,13 @@
         <v>199</v>
       </c>
       <c r="F460" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G460" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H460" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -7916,7 +7965,7 @@
         <v>134</v>
       </c>
       <c r="C462" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -7929,10 +7978,10 @@
         <v>219</v>
       </c>
       <c r="G464" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H464" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="465" spans="2:8" x14ac:dyDescent="0.25">
@@ -7940,16 +7989,16 @@
         <v>133</v>
       </c>
       <c r="E465" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F465" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G465" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H465" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="466" spans="2:8" x14ac:dyDescent="0.25">
@@ -7957,30 +8006,30 @@
         <v>133</v>
       </c>
       <c r="E466" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F466" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G466" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H466" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="467" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F467" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G467" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H467" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="468" spans="2:8" x14ac:dyDescent="0.25">
@@ -7990,12 +8039,12 @@
     </row>
     <row r="469" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="470" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="471" spans="2:8" x14ac:dyDescent="0.25">
@@ -8005,7 +8054,7 @@
     </row>
     <row r="472" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="473" spans="2:8" x14ac:dyDescent="0.25">
@@ -8018,16 +8067,16 @@
         <v>133</v>
       </c>
       <c r="E474" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F474" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G474" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H474" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="2:8" x14ac:dyDescent="0.25">
@@ -8035,7 +8084,7 @@
         <v>134</v>
       </c>
       <c r="C475" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="476" spans="2:8" x14ac:dyDescent="0.25">
@@ -8043,16 +8092,16 @@
         <v>133</v>
       </c>
       <c r="E476" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F476" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G476" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H476" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="477" spans="2:8" x14ac:dyDescent="0.25">
@@ -8060,30 +8109,30 @@
         <v>133</v>
       </c>
       <c r="E477" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F477" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G477" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H477" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="478" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D478" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F478" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G478" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H478" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="479" spans="2:8" x14ac:dyDescent="0.25">
@@ -8112,7 +8161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
     </sheetView>
@@ -8133,7 +8182,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -8786,32 +8835,32 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B45" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B46" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9144,7 +9193,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69" t="str">
         <f>"1"</f>
@@ -9159,82 +9208,82 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B70" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B71" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B72" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B73" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B75" t="str">
         <f>"3"</f>
@@ -9262,7 +9311,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9303,7 +9352,7 @@
         <v>213</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9326,7 +9375,7 @@
         <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>582</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>214</v>
@@ -9334,16 +9383,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E3" t="s">
         <v>212</v>
@@ -9352,7 +9401,7 @@
         <v>216</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>583</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>214</v>
@@ -9365,11 +9414,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131:XFD131"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9406,7 +9455,7 @@
         <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -9428,7 +9477,7 @@
         <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -9436,7 +9485,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>133</v>
@@ -9447,7 +9496,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>133</v>
@@ -9480,7 +9529,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
@@ -9491,7 +9540,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
@@ -9502,10 +9551,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -9513,7 +9562,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -9524,7 +9573,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>133</v>
@@ -9535,7 +9584,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>133</v>
@@ -9549,7 +9598,7 @@
         <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -9557,10 +9606,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -9568,7 +9617,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>133</v>
@@ -9604,7 +9653,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -9689,7 +9738,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
@@ -9700,7 +9749,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -9711,10 +9760,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -9722,7 +9771,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
@@ -9733,7 +9782,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -9744,7 +9793,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
@@ -9755,10 +9804,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -9766,7 +9815,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
         <v>133</v>
@@ -9777,7 +9826,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s">
         <v>133</v>
@@ -9788,7 +9837,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s">
         <v>133</v>
@@ -9799,10 +9848,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -9810,7 +9859,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -9821,7 +9870,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
@@ -9832,7 +9881,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s">
         <v>133</v>
@@ -9843,10 +9892,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -9854,7 +9903,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -9865,7 +9914,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s">
         <v>133</v>
@@ -9876,7 +9925,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
@@ -9887,10 +9936,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -9898,7 +9947,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
@@ -9909,7 +9958,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s">
         <v>133</v>
@@ -9920,7 +9969,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -9931,10 +9980,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -9942,7 +9991,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -9953,7 +10002,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
         <v>133</v>
@@ -9964,7 +10013,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -9975,10 +10024,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -9986,7 +10035,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -9997,7 +10046,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s">
         <v>133</v>
@@ -10008,7 +10057,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s">
         <v>133</v>
@@ -10019,10 +10068,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -10030,7 +10079,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s">
         <v>133</v>
@@ -10041,7 +10090,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
         <v>133</v>
@@ -10052,7 +10101,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s">
         <v>133</v>
@@ -10063,10 +10112,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -10074,7 +10123,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
         <v>133</v>
@@ -10085,7 +10134,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s">
         <v>133</v>
@@ -10096,7 +10145,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s">
         <v>133</v>
@@ -10107,10 +10156,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -10118,7 +10167,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B68" t="s">
         <v>133</v>
@@ -10129,7 +10178,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B69" t="s">
         <v>133</v>
@@ -10140,7 +10189,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B70" t="s">
         <v>133</v>
@@ -10151,10 +10200,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -10162,7 +10211,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B72" t="s">
         <v>133</v>
@@ -10173,7 +10222,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s">
         <v>133</v>
@@ -10184,7 +10233,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B74" t="s">
         <v>133</v>
@@ -10195,10 +10244,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -10206,7 +10255,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s">
         <v>133</v>
@@ -10217,7 +10266,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B77" t="s">
         <v>133</v>
@@ -10228,7 +10277,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B78" t="s">
         <v>133</v>
@@ -10239,10 +10288,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B79" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -10250,7 +10299,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B80" t="s">
         <v>133</v>
@@ -10261,7 +10310,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B81" t="s">
         <v>133</v>
@@ -10272,7 +10321,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B82" t="s">
         <v>133</v>
@@ -10283,10 +10332,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -10294,7 +10343,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B84" t="s">
         <v>133</v>
@@ -10305,7 +10354,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B85" t="s">
         <v>133</v>
@@ -10316,7 +10365,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B86" t="s">
         <v>133</v>
@@ -10327,10 +10376,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -10338,7 +10387,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
@@ -10349,7 +10398,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B89" t="s">
         <v>133</v>
@@ -10360,7 +10409,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B90" t="s">
         <v>133</v>
@@ -10371,10 +10420,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -10382,7 +10431,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s">
         <v>133</v>
@@ -10393,7 +10442,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B93" t="s">
         <v>133</v>
@@ -10404,7 +10453,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B94" t="s">
         <v>133</v>
@@ -10415,10 +10464,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B95" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -10426,7 +10475,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
         <v>133</v>
@@ -10437,7 +10486,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B97" t="s">
         <v>133</v>
@@ -10448,7 +10497,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B98" t="s">
         <v>133</v>
@@ -10459,10 +10508,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B99" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -10470,7 +10519,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B100" t="s">
         <v>133</v>
@@ -10481,7 +10530,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B101" t="s">
         <v>133</v>
@@ -10492,7 +10541,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B102" t="s">
         <v>133</v>
@@ -10503,10 +10552,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B103" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -10514,7 +10563,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B104" t="s">
         <v>133</v>
@@ -10525,7 +10574,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B105" t="s">
         <v>133</v>
@@ -10536,7 +10585,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B106" t="s">
         <v>133</v>
@@ -10547,10 +10596,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B107" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -10558,7 +10607,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B108" t="s">
         <v>133</v>
@@ -10569,7 +10618,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s">
         <v>133</v>
@@ -10580,7 +10629,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B111" t="s">
         <v>133</v>
@@ -10591,7 +10640,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B112" t="s">
         <v>133</v>
@@ -10602,7 +10651,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B113" t="s">
         <v>133</v>
@@ -10613,7 +10662,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B114" t="s">
         <v>133</v>
@@ -10624,7 +10673,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B115" t="s">
         <v>133</v>
@@ -10635,7 +10684,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B116" t="s">
         <v>133</v>
@@ -10646,7 +10695,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B117" t="s">
         <v>133</v>
@@ -10657,7 +10706,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B118" t="s">
         <v>133</v>
@@ -10668,7 +10717,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -10679,7 +10728,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B120" t="s">
         <v>133</v>
@@ -10690,7 +10739,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B121" t="s">
         <v>133</v>
@@ -10701,7 +10750,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s">
         <v>133</v>
@@ -10712,7 +10761,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B123" t="s">
         <v>133</v>
@@ -10723,7 +10772,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
@@ -10734,7 +10783,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B125" t="s">
         <v>133</v>
@@ -10745,7 +10794,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
@@ -10756,7 +10805,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B127" t="s">
         <v>133</v>
@@ -10767,7 +10816,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
@@ -10778,7 +10827,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>
@@ -10789,10 +10838,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -10800,10 +10849,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>215</v>
-      </c>
-      <c r="B132" t="s">
-        <v>131</v>
+        <v>585</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -10811,12 +10860,23 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B133" t="s">
-        <v>500</v>
+        <v>131</v>
       </c>
       <c r="C133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" t="s">
+        <v>499</v>
+      </c>
+      <c r="C134" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963E7C9E-8BA2-47AF-B90C-8009A9C7996B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECD8A0-E7BF-44EC-A32A-7B5F8197A156}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2505,8 +2505,8 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8162,7 +8162,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
@@ -9309,9 +9309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E333D-9CB6-4196-897F-8DFC8E093770}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9416,9 +9416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
+++ b/app/config/tables/MIFVISIT_CORE/forms/MIFVISIT_CORE/MIFVISIT_CORE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8DEAB4-E244-4197-A1DB-B65BEBAD2DCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFD006F-C97E-4BEA-A6E7-0CD518450DF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -945,7 +945,7 @@
     <t>Vac</t>
   </si>
   <si>
-    <t>MIFVAC_MUL</t>
+    <t>MIFVAC</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
@@ -3665,7 +3665,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
